--- a/wyniki/merged_in_order.xlsx
+++ b/wyniki/merged_in_order.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siema\Desktop\badanka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B2BD4-0772-4556-BB79-F44643984B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2285E6A-02D9-4D79-8750-F031699C03FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D03BF68-5000-4F71-B9A7-7FF09177C41F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="verA" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">verA!$A$1:$BA$32</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">verA!$A$1:$BA$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="312">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -923,6 +923,91 @@
   </si>
   <si>
     <t>I enjoyed talking with them and I wish they were more interactive.</t>
+  </si>
+  <si>
+    <t>2024/06/05 2:18:16 PM EEST</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>There was enough depth to feel like they were somwhat real but still not to much info so i got bored</t>
+  </si>
+  <si>
+    <t>it started out tedious but then became more interesting</t>
+  </si>
+  <si>
+    <t>after awhile</t>
+  </si>
+  <si>
+    <t>the npcs felt more alive but also harder to grasp since i had to ask questions</t>
+  </si>
+  <si>
+    <t>it was interesting trying to come up with good questions</t>
+  </si>
+  <si>
+    <t>2024/06/05 3:37:42 PM EEST</t>
+  </si>
+  <si>
+    <t>2024/06/05 9:38:10 PM EEST</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>It was interesting to talk to them and be able to compose your own messages, questions, and comments, and it was a more immersive gaming experience than I am used to narrative-wise.</t>
+  </si>
+  <si>
+    <t>Quite interested. The NPCs had unique backstories and personalities, although they seemed a bit confused sometimes</t>
+  </si>
+  <si>
+    <t>NPCs were a bit confused at times and gave wrong information, mixing up other characters (e.g., Mary and Sylvia) and sometimes repeated themselves.</t>
+  </si>
+  <si>
+    <t>Felt way too objective, polite, and a bit boring. I noticed their unique traits kind off went gone (Not panicking so much or nervous through the text, or having their own unique accents) the moment I started asking them questions. The NPCs that did catch my attention is Florian and Randy. For Florian, there were some sensitive questions I asked to him and he said "I'm not uncomfortable saying that", while Randy did not go too much into details, became evasive with his answer, and did not specify where he went somewhere else. The other times I did find something interesting is either when they were able to give me some useful information, or something was off with the line of information (Mary saying Sylvia is not a criminal investigator but Randy said she is also a detective).</t>
+  </si>
+  <si>
+    <t>Much interested since they were able to give me some useful information through the questions I have to form carefully. Each of them gave me info where I can see that they have info that others don't know, although I did wish they don't feel a bit way too "objective" and strangely similar with their way of words with other guests.</t>
+  </si>
+  <si>
+    <t>Yes, there were many times I had to save and load slots just to see their different answers, and had to experiment a bit more on the questions I formed off. Although, I did get eventually frustrated with the amount of questions I felt compelled to ask.</t>
+  </si>
+  <si>
+    <t>- Game keeps crashing when I loaded my saved slot on a part where I had to type my question
+- I think some nice little background music would make the game experience more immersive
+- I actually became interested with the type of software used in the game
+- Noticed also another bug where I loaded my saved slot on a specific text after I asked them a question, and a line of text I wanted to see has already disappeared from the history
+- Hmm, more expressions with the NPCs?
+- I wish the ending was more interesting, such as the police now going to the villa and interrogating each of the guests, which then eventually reveals who is the real murderer. Can also add guests' reactions about the accusation
+- Felt way too longer than usual while I was playing. Maybe I got affected by the max amount of questions I had to ask (Compelled to ask "all" possible questions)
+- Overall, even if this is just some experiment, the game is very interesting since this is my first time to play a game where I had to type a question I formed myself and the NPC actually answers it without being "way too off" about the context of the game</t>
+  </si>
+  <si>
+    <t>It was easier and more straightforward than the open-ended text box, but less immersive and I was less interested in the characters.</t>
+  </si>
+  <si>
+    <t>It was interesting to learn about the characters and their relationship to each other. Information was easier to attain than with the text box as the characters had fixed answers to the questions presented.</t>
+  </si>
+  <si>
+    <t>Less immersive than the text box version and I found myself losing interest/skimming the text because the motion of going through each character and their questions was repetitive and became almost automatic. Better in terms of cohesiveness and structure, as the characters had set answers to give. I assume because the other version uses AI their answers are confused and sometimes outright wrong, but with improvements, I would prefer the text box version of the game as it feels more interactive, less draining, and fully immersive in the story and the NPCs.</t>
+  </si>
+  <si>
+    <t>NPCs have more personality than in the previous version. They have their own way of words and personal feelings and thoughts towards another person. They even show remorse about Sylvia's death sometimes. I was able to actually gather information about what truly happened to other guests before her death, unlike in the previous one where NPCs just can't answer it properly. I can also clearly see what the NPCs know and don't know, unlike in the previous one where it felt like "every NPC knows everything" even though it's not exactly the case.</t>
+  </si>
+  <si>
+    <t>Very interested, since I managed to get a lot of new info that I wasn't able to get in the previous one (Adam actually liking Sylvia, Nathaniel actually threatening Sylvia based from what Florian said, Sylva feeling like being "stalked" by Florian, more descriptions about Randy's crimes, Nathaniel liking Adam and his perspective on Florian, Nathaniel and Mary's good relationship and his POV on her, Randy seemingly more nervous and ruder than in previous version). Out of all the NPCs, I would say the most interesting is still Randy, since out of all the guests present, he's the only one who talked about how suspicious Florian is and talks bad about everyone except Nathaniel, which I didn't see in the previous version (just always being evasive about my questions but didn't see any glimpse of his rude personality despite describing himself as arrogant and violent).</t>
+  </si>
+  <si>
+    <t>Much more so than in the previous version, since it actually felt more like talking to a real human, with most of their feelings and thoughts showing in the conversation, while also being actually seemingly more objective than in the previous version (even if what they're saying is a lot shorter than in the previous one).</t>
+  </si>
+  <si>
+    <t>- I caught a glimpse of the author's actual imagination, story, and writing in this version
+- A lot, lot faster than in the previous version when it comes to questioning, although a bit biased since I already know the whole story. However, it did take me less than an hour for this one
+- Unlike in the previous version, despite the questions now only having to choose through choices and not through open-ended way, it felt more objective, informative, and relevant
+- Didn't feel much frustrated unlike in the previous version since I didn't have to think about the proper questions to ask them
+- Noticed more misspellings on current version than in previous version. Interesting irony though. Version B has no grammar errors but most information shown can be irrelevant, while Version A has plenty of grammar errors shown such as misspellings but more objective and relevant when it comes to information
+- I think a bit of a problem is, its a bit unclear here regarding the info relating the actual crime scene (e.g. cause of death for Sylvia) but maybe that's just me
+- Overall, I noticed that in the previous version, the NPCs' texts felt more of generative AI, but this version is the actual writer's text. I realized there really is more creativity found in a human than in an AI, and this experiment convinced me that, making me less anxious about AI</t>
   </si>
 </sst>
 </file>
@@ -959,9 +1044,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1085,8 +1169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62D15449-599E-4376-B581-E98E2AC6ABB3}" name="verA" displayName="verA" ref="A1:BA32" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BA32" xr:uid="{62D15449-599E-4376-B581-E98E2AC6ABB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62D15449-599E-4376-B581-E98E2AC6ABB3}" name="verA" displayName="verA" ref="A1:BA35" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BA35" xr:uid="{62D15449-599E-4376-B581-E98E2AC6ABB3}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{EC68A8F5-5701-43F3-A7C6-98331A353F56}" uniqueName="1" name="Sygnatura czasowa" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{E13A63B9-0865-4084-9764-13F52E66DEF9}" uniqueName="2" name="Nazwa użytkownika" queryTableFieldId="2" dataDxfId="12"/>
@@ -1463,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC83EE0F-7B6E-43B1-AB1B-4164826BC2C8}">
-  <dimension ref="A1:BA32"/>
+  <dimension ref="A1:BA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,25 +1766,25 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
       <c r="H2">
@@ -1760,16 +1844,16 @@
       <c r="Z2">
         <v>2</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" t="s">
         <v>62</v>
       </c>
       <c r="AE2">
@@ -1829,39 +1913,39 @@
       <c r="AW2">
         <v>2</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>64</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>72</v>
       </c>
       <c r="H3">
@@ -1921,16 +2005,16 @@
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" t="s">
         <v>76</v>
       </c>
       <c r="AE3">
@@ -1990,39 +2074,39 @@
       <c r="AW3">
         <v>2</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AX3" t="s">
         <v>77</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AY3" t="s">
         <v>78</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AZ3" t="s">
         <v>79</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
       <c r="H4">
@@ -2082,16 +2166,16 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>85</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" t="s">
         <v>86</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" t="s">
         <v>87</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" t="s">
         <v>88</v>
       </c>
       <c r="AE4">
@@ -2151,39 +2235,39 @@
       <c r="AW4">
         <v>1</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AX4" t="s">
         <v>89</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AY4" t="s">
         <v>90</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AZ4" t="s">
         <v>87</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BA4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
       <c r="D5">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>72</v>
       </c>
       <c r="H5">
@@ -2243,16 +2327,16 @@
       <c r="Z5">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" t="s">
         <v>97</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" t="s">
         <v>98</v>
       </c>
       <c r="AE5">
@@ -2312,39 +2396,39 @@
       <c r="AW5">
         <v>1</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AX5" t="s">
         <v>99</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AY5" t="s">
         <v>100</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AZ5" t="s">
         <v>101</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BA5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>69</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>72</v>
       </c>
       <c r="H6">
@@ -2404,16 +2488,16 @@
       <c r="Z6">
         <v>2</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>106</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" t="s">
         <v>80</v>
       </c>
       <c r="AE6">
@@ -2473,39 +2557,39 @@
       <c r="AW6">
         <v>1</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AX6" t="s">
         <v>109</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AY6" t="s">
         <v>110</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="AZ6" t="s">
         <v>111</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BA6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>72</v>
       </c>
       <c r="H7">
@@ -2565,16 +2649,16 @@
       <c r="Z7">
         <v>3</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" t="s">
         <v>115</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" t="s">
         <v>117</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" t="s">
         <v>118</v>
       </c>
       <c r="AE7">
@@ -2634,39 +2718,39 @@
       <c r="AW7">
         <v>2</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AX7" t="s">
         <v>119</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AY7" t="s">
         <v>120</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="AZ7" t="s">
         <v>117</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BA7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>58</v>
       </c>
       <c r="H8">
@@ -2726,16 +2810,16 @@
       <c r="Z8">
         <v>5</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" t="s">
         <v>124</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" t="s">
         <v>125</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" t="s">
         <v>126</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" t="s">
         <v>127</v>
       </c>
       <c r="AE8">
@@ -2795,39 +2879,39 @@
       <c r="AW8">
         <v>5</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AX8" t="s">
         <v>124</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AY8" t="s">
         <v>128</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="AZ8" t="s">
         <v>129</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BA8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>72</v>
       </c>
       <c r="H9">
@@ -2887,16 +2971,16 @@
       <c r="Z9">
         <v>1</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" t="s">
         <v>133</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" t="s">
         <v>134</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" t="s">
         <v>134</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AD9" t="s">
         <v>135</v>
       </c>
       <c r="AE9">
@@ -2956,39 +3040,39 @@
       <c r="AW9">
         <v>1</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AX9" t="s">
         <v>136</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AY9" t="s">
         <v>134</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="AZ9" t="s">
         <v>134</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BA9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
       <c r="H10">
@@ -3048,16 +3132,16 @@
       <c r="Z10">
         <v>1</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" t="s">
         <v>138</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" t="s">
         <v>139</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AC10" t="s">
         <v>140</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AD10" t="s">
         <v>80</v>
       </c>
       <c r="AE10">
@@ -3117,39 +3201,39 @@
       <c r="AW10">
         <v>1</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AX10" t="s">
         <v>141</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AY10" t="s">
         <v>142</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="AZ10" t="s">
         <v>143</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BA10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
       <c r="H11">
@@ -3209,16 +3293,16 @@
       <c r="Z11">
         <v>4</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" t="s">
         <v>146</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" t="s">
         <v>147</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AC11" t="s">
         <v>148</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11" t="s">
         <v>80</v>
       </c>
       <c r="AE11">
@@ -3278,39 +3362,39 @@
       <c r="AW11">
         <v>4</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AX11" t="s">
         <v>149</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AY11" t="s">
         <v>150</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="AZ11" t="s">
         <v>148</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BA11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>72</v>
       </c>
       <c r="H12">
@@ -3370,16 +3454,16 @@
       <c r="Z12">
         <v>2</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" t="s">
         <v>153</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" t="s">
         <v>154</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AC12" t="s">
         <v>155</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AD12" t="s">
         <v>80</v>
       </c>
       <c r="AE12">
@@ -3439,39 +3523,39 @@
       <c r="AW12">
         <v>2</v>
       </c>
-      <c r="AX12" s="1" t="s">
+      <c r="AX12" t="s">
         <v>156</v>
       </c>
-      <c r="AY12" s="1" t="s">
+      <c r="AY12" t="s">
         <v>154</v>
       </c>
-      <c r="AZ12" s="1" t="s">
+      <c r="AZ12" t="s">
         <v>155</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BA12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
       <c r="H13">
@@ -3531,16 +3615,16 @@
       <c r="Z13">
         <v>1</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>158</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" t="s">
         <v>159</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" t="s">
         <v>159</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" t="s">
         <v>80</v>
       </c>
       <c r="AE13">
@@ -3600,39 +3684,39 @@
       <c r="AW13">
         <v>2</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AX13" t="s">
         <v>160</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AY13" t="s">
         <v>160</v>
       </c>
-      <c r="AZ13" s="1" t="s">
+      <c r="AZ13" t="s">
         <v>160</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BA13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>162</v>
       </c>
       <c r="H14">
@@ -3692,16 +3776,16 @@
       <c r="Z14">
         <v>5</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>163</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" t="s">
         <v>164</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" t="s">
         <v>165</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AD14" t="s">
         <v>166</v>
       </c>
       <c r="AE14">
@@ -3761,43 +3845,43 @@
       <c r="AW14">
         <v>5</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AX14" t="s">
         <v>163</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AY14" t="s">
         <v>163</v>
       </c>
-      <c r="AZ14" s="1" t="s">
+      <c r="AZ14" t="s">
         <v>165</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BA14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -3809,198 +3893,198 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>80</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI15">
         <v>4</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK15">
         <v>4</v>
       </c>
       <c r="AL15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW15">
-        <v>4</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>279</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>179</v>
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>3</v>
@@ -4009,31 +4093,31 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>175</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH16">
         <v>1</v>
@@ -4042,80 +4126,80 @@
         <v>4</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM16">
         <v>3</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS16">
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>187</v>
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
         <v>179</v>
       </c>
       <c r="H17">
@@ -4125,16 +4209,16 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4143,25 +4227,25 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -4170,40 +4254,40 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AA17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD17" t="s">
         <v>80</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH17">
         <v>1</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17">
         <v>1</v>
@@ -4212,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="AM17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN17">
         <v>2</v>
       </c>
       <c r="AO17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP17">
         <v>3</v>
@@ -4227,75 +4311,75 @@
         <v>2</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS17">
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17">
         <v>1</v>
       </c>
-      <c r="AX17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA17" s="1" t="s">
+      <c r="AX17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
+      <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
       </c>
       <c r="D18">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>162</v>
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>179</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4310,52 +4394,52 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>206</v>
+      <c r="AA18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>80</v>
       </c>
       <c r="AE18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH18">
         <v>1</v>
@@ -4364,16 +4448,16 @@
         <v>2</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN18">
         <v>2</v>
@@ -4382,72 +4466,72 @@
         <v>4</v>
       </c>
       <c r="AP18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>3</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -4456,13 +4540,13 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -4471,205 +4555,205 @@
         <v>2</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>2</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>80</v>
+      <c r="AA19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>206</v>
       </c>
       <c r="AE19">
         <v>4</v>
       </c>
       <c r="AF19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH19">
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT19">
         <v>4</v>
       </c>
       <c r="AU19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW19">
-        <v>2</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BA19" s="1" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>4</v>
-      </c>
-      <c r="V20">
-        <v>4</v>
-      </c>
-      <c r="W20">
-        <v>4</v>
-      </c>
-      <c r="X20">
-        <v>3</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="AE20">
         <v>4</v>
       </c>
@@ -4677,19 +4761,19 @@
         <v>4</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ20">
         <v>4</v>
       </c>
       <c r="AK20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL20">
         <v>2</v>
@@ -4698,16 +4782,16 @@
         <v>2</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>4</v>
@@ -4722,78 +4806,78 @@
         <v>2</v>
       </c>
       <c r="AV20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW20">
         <v>2</v>
       </c>
-      <c r="AX20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>220</v>
+      <c r="AX20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
+      <c r="C21" t="s">
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>226</v>
+      <c r="G21" t="s">
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>4</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4802,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21">
         <v>4</v>
@@ -4811,37 +4895,37 @@
         <v>4</v>
       </c>
       <c r="X21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z21">
         <v>3</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>80</v>
+      <c r="AA21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>224</v>
       </c>
       <c r="AE21">
         <v>4</v>
       </c>
       <c r="AF21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21">
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI21">
         <v>2</v>
@@ -4850,96 +4934,96 @@
         <v>4</v>
       </c>
       <c r="AK21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS21">
         <v>4</v>
       </c>
       <c r="AT21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY21" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>226</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4951,88 +5035,88 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>239</v>
+        <v>3</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>80</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN22">
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ22">
         <v>3</v>
       </c>
       <c r="AR22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS22">
         <v>4</v>
@@ -5041,299 +5125,299 @@
         <v>3</v>
       </c>
       <c r="AU22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV22">
         <v>2</v>
       </c>
       <c r="AW22">
-        <v>2</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ22" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
       <c r="D23">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>162</v>
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>80</v>
+      <c r="AA23" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>239</v>
       </c>
       <c r="AE23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23">
         <v>1</v>
       </c>
       <c r="AI23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN23">
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
+      <c r="C24" t="s">
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
         <v>162</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24">
         <v>4</v>
       </c>
       <c r="W24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>4</v>
       </c>
       <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD24" t="s">
         <v>80</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL24">
         <v>4</v>
@@ -5342,19 +5426,19 @@
         <v>3</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS24">
         <v>3</v>
@@ -5363,369 +5447,369 @@
         <v>4</v>
       </c>
       <c r="AU24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV24">
         <v>4</v>
       </c>
       <c r="AW24">
-        <v>4</v>
-      </c>
-      <c r="AX24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AZ24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
+      <c r="C25" t="s">
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>179</v>
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>5</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W25">
         <v>5</v>
       </c>
       <c r="X25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z25">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>80</v>
       </c>
       <c r="AE25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW25">
-        <v>5</v>
-      </c>
-      <c r="AX25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BA25" s="1" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>27</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>179</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>263</v>
+        <v>5</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>130</v>
       </c>
       <c r="AE26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW26">
-        <v>3</v>
-      </c>
-      <c r="AX26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AY26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA26" s="1" t="s">
-        <v>259</v>
+        <v>5</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
         <v>72</v>
       </c>
       <c r="H27">
@@ -5735,10 +5819,10 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -5750,150 +5834,150 @@
         <v>2</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U27">
         <v>4</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z27">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>263</v>
       </c>
       <c r="AE27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW27">
-        <v>5</v>
-      </c>
-      <c r="AX27" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AZ27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA27" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
       <c r="D28">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>162</v>
+      <c r="G28" t="s">
+        <v>72</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -5902,19 +5986,19 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -5926,61 +6010,61 @@
         <v>5</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z28">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>275</v>
+        <v>4</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>80</v>
       </c>
       <c r="AE28">
         <v>4</v>
       </c>
       <c r="AF28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28">
         <v>4</v>
@@ -5992,168 +6076,168 @@
         <v>4</v>
       </c>
       <c r="AP28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28">
         <v>4</v>
       </c>
       <c r="AS28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>4</v>
       </c>
       <c r="AU28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ28" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BA28" s="1" t="s">
-        <v>273</v>
+        <v>5</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
       <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
         <v>162</v>
       </c>
       <c r="H29">
         <v>4</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <v>5</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29">
         <v>5</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X29">
         <v>4</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z29">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>275</v>
       </c>
       <c r="AE29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK29">
         <v>4</v>
       </c>
       <c r="AL29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29">
         <v>5</v>
@@ -6162,214 +6246,214 @@
         <v>4</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT29">
         <v>4</v>
       </c>
       <c r="AU29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29">
         <v>4</v>
       </c>
-      <c r="AX29" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>80</v>
+      <c r="AX29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>55</v>
       </c>
       <c r="D30">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" t="s">
         <v>162</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>5</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30">
         <v>5</v>
       </c>
       <c r="P30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30">
         <v>5</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>5</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>80</v>
       </c>
       <c r="AE30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM30">
         <v>5</v>
       </c>
       <c r="AN30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ30">
         <v>5</v>
       </c>
       <c r="AR30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW30">
-        <v>5</v>
-      </c>
-      <c r="AX30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA30" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>279</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>55</v>
       </c>
       <c r="D31">
         <v>32</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>162</v>
       </c>
       <c r="H31">
@@ -6429,247 +6513,730 @@
       <c r="Z31">
         <v>5</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AA31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB31" t="s">
         <v>165</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
+      </c>
+      <c r="AG31">
+        <v>5</v>
+      </c>
+      <c r="AH31">
+        <v>5</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>5</v>
+      </c>
+      <c r="AL31">
+        <v>5</v>
+      </c>
+      <c r="AM31">
+        <v>5</v>
+      </c>
+      <c r="AN31">
+        <v>5</v>
+      </c>
+      <c r="AO31">
+        <v>5</v>
+      </c>
+      <c r="AP31">
+        <v>5</v>
+      </c>
+      <c r="AQ31">
+        <v>5</v>
+      </c>
+      <c r="AR31">
+        <v>5</v>
+      </c>
+      <c r="AS31">
+        <v>5</v>
+      </c>
+      <c r="AT31">
+        <v>5</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31" t="s">
         <v>163</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AY31" t="s">
         <v>165</v>
       </c>
-      <c r="AD31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE31">
-        <v>5</v>
-      </c>
-      <c r="AF31">
-        <v>5</v>
-      </c>
-      <c r="AG31">
-        <v>5</v>
-      </c>
-      <c r="AH31">
-        <v>5</v>
-      </c>
-      <c r="AI31">
-        <v>5</v>
-      </c>
-      <c r="AJ31">
-        <v>5</v>
-      </c>
-      <c r="AK31">
-        <v>5</v>
-      </c>
-      <c r="AL31">
-        <v>5</v>
-      </c>
-      <c r="AM31">
-        <v>5</v>
-      </c>
-      <c r="AN31">
-        <v>5</v>
-      </c>
-      <c r="AO31">
-        <v>5</v>
-      </c>
-      <c r="AP31">
-        <v>5</v>
-      </c>
-      <c r="AQ31">
-        <v>5</v>
-      </c>
-      <c r="AR31">
-        <v>5</v>
-      </c>
-      <c r="AS31">
-        <v>5</v>
-      </c>
-      <c r="AT31">
-        <v>5</v>
-      </c>
-      <c r="AU31">
-        <v>5</v>
-      </c>
-      <c r="AV31">
-        <v>5</v>
-      </c>
-      <c r="AW31">
-        <v>5</v>
-      </c>
-      <c r="AX31" s="1" t="s">
+      <c r="AZ31" t="s">
         <v>163</v>
       </c>
-      <c r="AY31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BA31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>5</v>
+      </c>
+      <c r="AH32">
+        <v>5</v>
+      </c>
+      <c r="AI32">
+        <v>5</v>
+      </c>
+      <c r="AJ32">
+        <v>5</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>5</v>
+      </c>
+      <c r="AM32">
+        <v>5</v>
+      </c>
+      <c r="AN32">
+        <v>5</v>
+      </c>
+      <c r="AO32">
+        <v>5</v>
+      </c>
+      <c r="AP32">
+        <v>5</v>
+      </c>
+      <c r="AQ32">
+        <v>5</v>
+      </c>
+      <c r="AR32">
+        <v>5</v>
+      </c>
+      <c r="AS32">
+        <v>5</v>
+      </c>
+      <c r="AT32">
+        <v>5</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>19</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" t="s">
         <v>72</v>
       </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>5</v>
-      </c>
-      <c r="P32">
-        <v>5</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <v>5</v>
-      </c>
-      <c r="S32">
-        <v>5</v>
-      </c>
-      <c r="T32">
-        <v>5</v>
-      </c>
-      <c r="U32">
-        <v>5</v>
-      </c>
-      <c r="V32">
-        <v>5</v>
-      </c>
-      <c r="W32">
-        <v>5</v>
-      </c>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>5</v>
-      </c>
-      <c r="Z32">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="1" t="s">
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="s">
         <v>287</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AB33" t="s">
         <v>285</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AC33" t="s">
         <v>286</v>
       </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AD33" t="s">
         <v>80</v>
       </c>
-      <c r="AE32">
-        <v>5</v>
-      </c>
-      <c r="AF32">
-        <v>5</v>
-      </c>
-      <c r="AG32">
-        <v>3</v>
-      </c>
-      <c r="AH32">
-        <v>2</v>
-      </c>
-      <c r="AI32">
-        <v>2</v>
-      </c>
-      <c r="AJ32">
-        <v>5</v>
-      </c>
-      <c r="AK32">
-        <v>3</v>
-      </c>
-      <c r="AL32">
-        <v>4</v>
-      </c>
-      <c r="AM32">
-        <v>4</v>
-      </c>
-      <c r="AN32">
-        <v>5</v>
-      </c>
-      <c r="AO32">
-        <v>5</v>
-      </c>
-      <c r="AP32">
-        <v>5</v>
-      </c>
-      <c r="AQ32">
-        <v>5</v>
-      </c>
-      <c r="AR32">
-        <v>5</v>
-      </c>
-      <c r="AS32">
-        <v>5</v>
-      </c>
-      <c r="AT32">
-        <v>5</v>
-      </c>
-      <c r="AU32">
-        <v>5</v>
-      </c>
-      <c r="AV32">
-        <v>5</v>
-      </c>
-      <c r="AW32">
-        <v>5</v>
-      </c>
-      <c r="AX32" s="1" t="s">
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>5</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <v>4</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AN33">
+        <v>5</v>
+      </c>
+      <c r="AO33">
+        <v>5</v>
+      </c>
+      <c r="AP33">
+        <v>5</v>
+      </c>
+      <c r="AQ33">
+        <v>5</v>
+      </c>
+      <c r="AR33">
+        <v>5</v>
+      </c>
+      <c r="AS33">
+        <v>5</v>
+      </c>
+      <c r="AT33">
+        <v>5</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33" t="s">
         <v>284</v>
       </c>
-      <c r="AY32" s="1" t="s">
+      <c r="AY33" t="s">
         <v>285</v>
       </c>
-      <c r="AZ32" s="1" t="s">
+      <c r="AZ33" t="s">
         <v>286</v>
       </c>
-      <c r="BA32" s="1" t="s">
+      <c r="BA33" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE34">
+        <v>4</v>
+      </c>
+      <c r="AF34">
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>3</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>4</v>
+      </c>
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>4</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>3</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE35">
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <v>4</v>
+      </c>
+      <c r="AG35">
+        <v>5</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>4</v>
+      </c>
+      <c r="AJ35">
+        <v>5</v>
+      </c>
+      <c r="AK35">
+        <v>4</v>
+      </c>
+      <c r="AL35">
+        <v>4</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>5</v>
+      </c>
+      <c r="AO35">
+        <v>4</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>4</v>
+      </c>
+      <c r="AR35">
+        <v>5</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>3</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki/merged_in_order.xlsx
+++ b/wyniki/merged_in_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25354664-AECF-43EE-98CF-12DE17BA4687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D196BF9-DDA4-4F27-9534-823AE240DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8D03BF68-5000-4F71-B9A7-7FF09177C41F}"/>
   </bookViews>
@@ -20,158 +20,158 @@
     <sheet name="formB descriptive" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'formA descriptive'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'formA descriptive'!$AA$2:$AA$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'formA descriptive'!$AF$1</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'formB descriptive'!$M$1</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'formB descriptive'!$M$2:$M$21</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'formB descriptive'!$N$1</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'formB descriptive'!$N$2:$N$21</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'formB descriptive'!$O$1</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">'formB descriptive'!$O$2:$O$21</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">'formB descriptive'!$P$1</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">'formB descriptive'!$P$2:$P$21</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">'formB descriptive'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">'formB descriptive'!$Q$2:$Q$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'formA descriptive'!$AF$2:$AF$15</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">'formB descriptive'!$R$1</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">'formB descriptive'!$R$2:$R$21</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">'formB descriptive'!$S$1</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">'formB descriptive'!$S$2:$S$21</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">'formB descriptive'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">'formB descriptive'!$AA$2:$AA$21</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">'formB descriptive'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">'formB descriptive'!$AB$2:$AB$21</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">'formB descriptive'!$AC$1</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">'formB descriptive'!$AC$2:$AC$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'formA descriptive'!$AG$1</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">'formB descriptive'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">'formB descriptive'!$AD$2:$AD$21</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">'formB descriptive'!$AE$1</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">'formB descriptive'!$AE$2:$AE$21</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">'formB descriptive'!$AF$1</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">'formB descriptive'!$AF$2:$AF$21</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">'formB descriptive'!$AG$1</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">'formB descriptive'!$AG$2:$AG$21</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">'formB descriptive'!$AH$1</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">'formB descriptive'!$AH$2:$AH$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'formA descriptive'!$AG$2:$AG$15</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">'formB descriptive'!$AI$1</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">'formB descriptive'!$AI$2:$AI$21</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">'formB descriptive'!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">'formB descriptive'!$AJ$2:$AJ$21</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">'formB descriptive'!$AK$1</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">'formB descriptive'!$AK$2:$AK$21</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">'formB descriptive'!$AL$1</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">'formB descriptive'!$AL$2:$AL$21</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">'formB descriptive'!$AM$1</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">'formB descriptive'!$AM$2:$AM$21</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'formA descriptive'!$AH$1</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">'formB descriptive'!$U$1</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">'formB descriptive'!$U$2:$U$21</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">'formB descriptive'!$V$1</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">'formB descriptive'!$V$2:$V$21</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">'formB descriptive'!$W$1</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">'formB descriptive'!$W$2:$W$21</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">'formB descriptive'!$X$1</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">'formB descriptive'!$X$2:$X$21</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">'formB descriptive'!$Y$1</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">'formB descriptive'!$Y$2:$Y$21</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'formA descriptive'!$AH$2:$AH$15</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">'formB descriptive'!$Z$1</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">'formB descriptive'!$Z$2:$Z$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'formA descriptive'!$AI$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'formA descriptive'!$AI$2:$AI$15</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'formA descriptive'!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'formA descriptive'!$AJ$2:$AJ$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'formA descriptive'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'formA descriptive'!$AK$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'formA descriptive'!$AK$2:$AK$15</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'formA descriptive'!$AL$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'formA descriptive'!$AL$2:$AL$15</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'formA descriptive'!$AM$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'formA descriptive'!$AM$2:$AM$15</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'formA descriptive'!$U$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'formA descriptive'!$U$2:$U$15</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'formA descriptive'!$V$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'formA descriptive'!$V$2:$V$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'formA descriptive'!$AB$2:$AB$15</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'formA descriptive'!$W$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'formA descriptive'!$W$2:$W$15</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'formA descriptive'!$X$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'formA descriptive'!$X$2:$X$15</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'formA descriptive'!$Y$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'formA descriptive'!$Y$2:$Y$15</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'formA descriptive'!$Z$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'formA descriptive'!$Z$2:$Z$15</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'formA descriptive'!$A$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'formA descriptive'!$AC$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'formA descriptive'!$B$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'formA descriptive'!$B$2:$B$15</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'formA descriptive'!$C$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'formA descriptive'!$D$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'formA descriptive'!$E$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'formA descriptive'!$F$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'formA descriptive'!$AC$2:$AC$15</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'formA descriptive'!$G$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'formA descriptive'!$H$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'formA descriptive'!$I$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'formA descriptive'!$J$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'formA descriptive'!$K$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'formA descriptive'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'formA descriptive'!$L$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'formA descriptive'!$M$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'formA descriptive'!$N$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'formA descriptive'!$O$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'formA descriptive'!$P$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'formA descriptive'!$P$2:$P$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'formA descriptive'!$AD$2:$AD$15</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'formA descriptive'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'formA descriptive'!$Q$2:$Q$15</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'formA descriptive'!$R$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'formA descriptive'!$S$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'formB descriptive'!$A$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'formB descriptive'!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'formB descriptive'!$B$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'formB descriptive'!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'formA descriptive'!$AE$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'formB descriptive'!$C$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'formB descriptive'!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'formB descriptive'!$D$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'formB descriptive'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'formB descriptive'!$E$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'formB descriptive'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'formB descriptive'!$F$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'formB descriptive'!$F$2:$F$21</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'formB descriptive'!$G$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'formB descriptive'!$G$2:$G$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'formA descriptive'!$AE$2:$AE$15</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'formB descriptive'!$H$1</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'formB descriptive'!$H$2:$H$21</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'formB descriptive'!$I$1</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'formB descriptive'!$I$2:$I$21</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'formB descriptive'!$J$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'formB descriptive'!$J$2:$J$21</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'formB descriptive'!$K$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'formB descriptive'!$K$2:$K$21</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'formB descriptive'!$L$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'formB descriptive'!$L$2:$L$21</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'formA descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'formA descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'formB descriptive'!$AM$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'formB descriptive'!$AM$2:$AM$21</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'formB descriptive'!$U$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'formB descriptive'!$U$2:$U$21</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'formB descriptive'!$V$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'formB descriptive'!$V$2:$V$21</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'formB descriptive'!$W$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'formB descriptive'!$W$2:$W$21</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'formB descriptive'!$X$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'formB descriptive'!$X$2:$X$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'formB descriptive'!$Y$1</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'formB descriptive'!$Y$2:$Y$21</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'formB descriptive'!$Z$1</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'formB descriptive'!$Z$2:$Z$21</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'formB descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'formB descriptive'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'formB descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'formB descriptive'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'formB descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'formB descriptive'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'formA descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'formB descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'formB descriptive'!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'formB descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'formB descriptive'!$E$2:$E$21</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'formB descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'formB descriptive'!$F$2:$F$21</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'formB descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'formB descriptive'!$G$2:$G$21</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'formB descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'formB descriptive'!$H$2:$H$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'formB descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'formB descriptive'!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'formB descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'formB descriptive'!$J$2:$J$21</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'formB descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'formB descriptive'!$K$2:$K$21</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'formB descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'formB descriptive'!$L$2:$L$21</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'formB descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'formB descriptive'!$M$2:$M$21</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'formA descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'formB descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'formB descriptive'!$N$2:$N$21</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'formB descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'formB descriptive'!$O$2:$O$21</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'formB descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'formB descriptive'!$P$2:$P$21</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'formB descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'formB descriptive'!$Q$2:$Q$21</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'formB descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'formB descriptive'!$R$2:$R$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'formB descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'formB descriptive'!$S$2:$S$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'formA descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'formA descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'formA descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'formA descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'formA descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'formA descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'formA descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'formA descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'formA descriptive'!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'formA descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'formA descriptive'!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'formA descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'formA descriptive'!$Q$2:$Q$15</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'formA descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'formA descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'formA descriptive'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'formA descriptive'!$AA$2:$AA$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'formA descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'formA descriptive'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'formA descriptive'!$AB$2:$AB$15</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'formA descriptive'!$AC$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'formA descriptive'!$AC$2:$AC$15</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'formA descriptive'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'formA descriptive'!$AD$2:$AD$15</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'formA descriptive'!$AE$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'formA descriptive'!$AE$2:$AE$15</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'formA descriptive'!$AF$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'formA descriptive'!$AF$2:$AF$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'formA descriptive'!$AG$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'formA descriptive'!$AG$2:$AG$15</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'formA descriptive'!$AH$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'formA descriptive'!$AH$2:$AH$15</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'formA descriptive'!$AI$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'formA descriptive'!$AI$2:$AI$15</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'formA descriptive'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'formA descriptive'!$AJ$2:$AJ$15</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'formA descriptive'!$AK$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'formA descriptive'!$AK$2:$AK$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'formA descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'formA descriptive'!$AL$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'formA descriptive'!$AL$2:$AL$15</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'formA descriptive'!$AM$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'formA descriptive'!$AM$2:$AM$15</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'formA descriptive'!$U$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'formA descriptive'!$U$2:$U$15</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'formA descriptive'!$V$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'formA descriptive'!$V$2:$V$15</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'formA descriptive'!$W$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'formA descriptive'!$W$2:$W$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'formA descriptive'!$X$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'formA descriptive'!$X$2:$X$15</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'formA descriptive'!$Y$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'formA descriptive'!$Y$2:$Y$15</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'formA descriptive'!$Z$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'formA descriptive'!$Z$2:$Z$15</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'formB descriptive'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'formB descriptive'!$AA$2:$AA$21</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'formB descriptive'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'formB descriptive'!$AB$2:$AB$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'formA descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'formB descriptive'!$AC$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'formB descriptive'!$AC$2:$AC$21</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'formB descriptive'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'formB descriptive'!$AD$2:$AD$21</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'formB descriptive'!$AE$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'formB descriptive'!$AE$2:$AE$21</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'formB descriptive'!$AF$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'formB descriptive'!$AF$2:$AF$21</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'formB descriptive'!$AG$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'formB descriptive'!$AG$2:$AG$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'formB descriptive'!$AH$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'formB descriptive'!$AH$2:$AH$21</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'formB descriptive'!$AI$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'formB descriptive'!$AI$2:$AI$21</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'formB descriptive'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'formB descriptive'!$AJ$2:$AJ$21</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'formB descriptive'!$AK$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'formB descriptive'!$AK$2:$AK$21</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'formB descriptive'!$AL$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'formB descriptive'!$AL$2:$AL$21</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">combined!$A$1:$BC$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4094,97 +4094,97 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="16">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="17">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="18">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4194,7 +4194,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{14DB9EF3-7C72-49A1-86F8-744E79F81050}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>I lose track of time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4218,7 +4218,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{28954439-E554-499B-A931-7DD5E4FE2398}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>I was interested in the game's story</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4241,7 +4241,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5FDB13A7-697C-45B5-BBD7-1BF9362EF47D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>I feel different </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4263,7 +4263,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D8D1F8AA-37EE-4BCD-BD16-3EECE70FB4F6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>I felt that I could explore things</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4285,7 +4285,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76DD44DE-EB10-48DE-9D62-3E8CBCBCA526}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>The game feels real</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4307,7 +4307,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB15A01C-5E33-4E8D-BD27-6DC1C6ECBE8B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>I was fully occupied with the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4329,7 +4329,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FE1EF1A2-DE25-4837-B56F-0723CAC5CD08}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>I get wound up</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4351,7 +4351,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{80A22390-F0DE-4AA5-921B-A88BD8AD65DF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Time seems to kind of stand still or stop</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4382,7 +4382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7C541C84-D642-49DE-9497-26343A07203C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>I feel spaced out</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4404,7 +4404,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FB399FAA-0903-4292-B99E-C97B26E3AE17}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>I was deeply concentrated in the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4426,7 +4426,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3564EB1B-CD8C-4860-8938-6C3449A4F1D2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>I got tired</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4448,7 +4448,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{15B77A2A-3E29-48ED-9669-4B55CF92978A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Playing seems automatic</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4470,7 +4470,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6D05807E-D4DC-4997-ACB8-1A2979E78A51}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>My thoughts go fast</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4492,7 +4492,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CC6CD2DE-F2C0-491E-A106-795600B33B76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>I enjoyed it</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4514,7 +4514,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{308F09CE-DC95-4014-91CC-6C3AAA923D76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>I play without thinking how to play</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4536,7 +4536,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CA9904C7-CF78-484C-9758-BEC54BCA8F14}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Playing makes me feel calm</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4558,7 +4558,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{63C92058-BF2B-4D41-8FF3-F9B3CC75F6C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>I play longer than I meant to</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4580,7 +4580,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E0422A26-D9DA-4370-AB44-98F821AAB3C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>I really get into the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4602,7 +4602,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D0CCE0DE-E4ED-4C33-B35F-7825BB57E66D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>I feel like I just can't stop playing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4668,97 +4668,97 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.65</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.67</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.71</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.73</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.75</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="16">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="17">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="18">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.63</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4768,7 +4768,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6B2C322B-B993-4F8E-AD6D-D6C2B7F63CF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.64</cx:f>
               <cx:v>I lose track of time_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4792,7 +4792,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E02B80E8-2FB2-4DDC-AD8F-7C1781B5351D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.66</cx:f>
               <cx:v>I was interested in the game's story_2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4816,7 +4816,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5325B789-9EA1-459B-8B3A-2BA177FA7452}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.68</cx:f>
               <cx:v>I feel different _3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4840,7 +4840,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{93E216F0-D381-4781-9469-3F638844AB76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.70</cx:f>
               <cx:v>I felt that I could explore things_19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4864,7 +4864,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{20D76B0E-414F-4FB1-89D3-2C12891AC821}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.72</cx:f>
               <cx:v>The game feels real_4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4888,7 +4888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0613C36A-79A9-425B-A85A-BCCC0AAEAAAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.74</cx:f>
               <cx:v>I was fully occupied with the game_5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4912,7 +4912,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9BF60487-8D59-4343-B646-2B08CC91102F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>I get wound up_6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4936,7 +4936,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3C11C9EF-0425-4EF0-8A74-AEFF33F41B94}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>Time seems to kind of stand still or stop_7</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4960,7 +4960,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B63E5641-6ECE-49B4-9F68-EA30F58B69D5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>I feel spaced out_8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4984,7 +4984,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{54428096-C2D4-4AEF-945F-A64229B05518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>I was deeply concentrated in the game_9</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5008,7 +5008,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB6AC2EE-2865-4768-AC7D-B362833BF49C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>I got tired_10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5032,7 +5032,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F995007B-3A0D-4C3A-9571-70C97B54984D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>Playing seems automatic_11</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5056,7 +5056,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D1C795A9-A8BC-4834-A07C-A2DC95455B20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>My thoughts go fast_12</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5080,7 +5080,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AA2769E5-103B-4214-ACCF-F279E62AA73F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>I enjoyed it_13</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5104,7 +5104,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{698B5BAD-519B-4E6E-9009-39D5E773E964}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>I play without thinking how to play_14</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5128,7 +5128,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE8BED53-DB07-4840-A396-E6DA970FBB0C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>Playing makes me feel calm_15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5152,7 +5152,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F95B28B1-4041-45E4-8DF6-E9AAE288F2EE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>I play longer than I meant to_16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5176,7 +5176,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D3FD1AF5-FA39-4C5C-A16C-5B0200C2A3D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>I really get into the game_17</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5200,7 +5200,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{10B828E5-ACEC-4185-99CE-BAF84DF0A917}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.62</cx:f>
               <cx:v>I feel like I just can't stop playing_18</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5242,97 +5242,97 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.115</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.117</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.119</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.121</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.123</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.125</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.89</cx:f>
+        <cx:f>_xlchart.v1.127</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.91</cx:f>
+        <cx:f>_xlchart.v1.129</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.93</cx:f>
+        <cx:f>_xlchart.v1.131</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.95</cx:f>
+        <cx:f>_xlchart.v1.133</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
+        <cx:f>_xlchart.v1.135</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.99</cx:f>
+        <cx:f>_xlchart.v1.137</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.101</cx:f>
+        <cx:f>_xlchart.v1.139</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.103</cx:f>
+        <cx:f>_xlchart.v1.141</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.105</cx:f>
+        <cx:f>_xlchart.v1.143</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.107</cx:f>
+        <cx:f>_xlchart.v1.145</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="16">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.109</cx:f>
+        <cx:f>_xlchart.v1.147</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="17">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.111</cx:f>
+        <cx:f>_xlchart.v1.149</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="18">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.113</cx:f>
+        <cx:f>_xlchart.v1.151</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5342,7 +5342,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B71226A2-0FD7-4A7F-B584-69747636A850}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.114</cx:f>
               <cx:v>I lose track of time_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5366,7 +5366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4438934A-17F4-4C46-A258-6CCA9A6AAEE2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.116</cx:f>
               <cx:v>I was interested in the game's story_2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5390,7 +5390,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1FF4E36A-E2C9-4D43-89E2-0794D3A5507C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:f>_xlchart.v1.118</cx:f>
               <cx:v>I feel different _3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5414,7 +5414,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7E2C3773-031F-4E4A-A600-4BEEB30A2842}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:f>_xlchart.v1.120</cx:f>
               <cx:v>I felt that I could explore things_19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5438,7 +5438,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{15C882DE-C1F6-4C8A-B8F5-E488E7F9B696}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:f>_xlchart.v1.122</cx:f>
               <cx:v>The game feels real_4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5462,7 +5462,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8C643387-B1F0-48D2-BFD9-029450868CBF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.86</cx:f>
+              <cx:f>_xlchart.v1.124</cx:f>
               <cx:v>I was fully occupied with the game_5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5486,7 +5486,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C726DA54-373D-4575-A283-14DFA18FDF60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:f>_xlchart.v1.126</cx:f>
               <cx:v>I get wound up_6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5510,7 +5510,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB753087-38D1-415F-A67C-F6D1C965A876}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:f>_xlchart.v1.128</cx:f>
               <cx:v>Time seems to kind of stand still or stop_7</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5534,7 +5534,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{33DD0E8A-976A-43B6-B797-B7D7FB41AEB0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.92</cx:f>
+              <cx:f>_xlchart.v1.130</cx:f>
               <cx:v>I feel spaced out_8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5558,7 +5558,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{837617D6-F352-488B-9D42-26E1A471848F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.94</cx:f>
+              <cx:f>_xlchart.v1.132</cx:f>
               <cx:v>I was deeply concentrated in the game_9</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5582,7 +5582,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F004EC9D-1A45-4B71-8B2B-1B716AC335C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:f>_xlchart.v1.134</cx:f>
               <cx:v>I got tired_10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5606,7 +5606,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B61728EC-71A4-4AC8-8B85-0351777A9908}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:f>_xlchart.v1.136</cx:f>
               <cx:v>Playing seems automatic_11</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5630,7 +5630,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DFC2FCFC-3149-467B-9B69-2B05E046EBB0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.100</cx:f>
+              <cx:f>_xlchart.v1.138</cx:f>
               <cx:v>My thoughts go fast_12</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5654,7 +5654,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F7F352DD-C01E-4289-84BB-B062B1347E79}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.102</cx:f>
+              <cx:f>_xlchart.v1.140</cx:f>
               <cx:v>I enjoyed it_13</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5678,7 +5678,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{562A32E3-31F3-49B1-8FE0-9E1079F9E882}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.104</cx:f>
+              <cx:f>_xlchart.v1.142</cx:f>
               <cx:v>I play without thinking how to play_14</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5702,7 +5702,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{944F3130-1904-4E51-97A2-D610FAFFEE4D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.106</cx:f>
+              <cx:f>_xlchart.v1.144</cx:f>
               <cx:v>Playing makes me feel calm_15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5726,7 +5726,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6CB22AA3-AB90-40DB-884B-F6A2ADBB5A09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:f>_xlchart.v1.146</cx:f>
               <cx:v>I play longer than I meant to_16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5750,7 +5750,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4665FFD-BF85-4A44-B4E8-4EE594665D69}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.110</cx:f>
+              <cx:f>_xlchart.v1.148</cx:f>
               <cx:v>I really get into the game_17</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5774,7 +5774,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{881A8826-539A-4798-91B8-A059E5DF96A3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.112</cx:f>
+              <cx:f>_xlchart.v1.150</cx:f>
               <cx:v>I feel like I just can't stop playing_18</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5816,97 +5816,97 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.141</cx:f>
+        <cx:f>_xlchart.v1.103</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.143</cx:f>
+        <cx:f>_xlchart.v1.105</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.145</cx:f>
+        <cx:f>_xlchart.v1.107</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.147</cx:f>
+        <cx:f>_xlchart.v1.109</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.149</cx:f>
+        <cx:f>_xlchart.v1.111</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.151</cx:f>
+        <cx:f>_xlchart.v1.113</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.115</cx:f>
+        <cx:f>_xlchart.v1.77</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.117</cx:f>
+        <cx:f>_xlchart.v1.79</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.119</cx:f>
+        <cx:f>_xlchart.v1.81</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.121</cx:f>
+        <cx:f>_xlchart.v1.83</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.123</cx:f>
+        <cx:f>_xlchart.v1.85</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.125</cx:f>
+        <cx:f>_xlchart.v1.87</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.127</cx:f>
+        <cx:f>_xlchart.v1.89</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.129</cx:f>
+        <cx:f>_xlchart.v1.91</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.131</cx:f>
+        <cx:f>_xlchart.v1.93</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.133</cx:f>
+        <cx:f>_xlchart.v1.95</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="16">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.135</cx:f>
+        <cx:f>_xlchart.v1.97</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="17">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.137</cx:f>
+        <cx:f>_xlchart.v1.99</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="18">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.139</cx:f>
+        <cx:f>_xlchart.v1.101</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5916,7 +5916,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4FF7C23-5FDB-48C6-86D8-2976A7CA21D3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.140</cx:f>
+              <cx:f>_xlchart.v1.102</cx:f>
               <cx:v>I lose track of time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5940,7 +5940,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{79745BDB-A86E-497F-B533-959F50026377}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.142</cx:f>
+              <cx:f>_xlchart.v1.104</cx:f>
               <cx:v>I was interested in the game's story</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5964,7 +5964,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{912E1900-FE5B-4A19-80A4-1D1D9281AB97}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.144</cx:f>
+              <cx:f>_xlchart.v1.106</cx:f>
               <cx:v>I feel different </cx:v>
             </cx:txData>
           </cx:tx>
@@ -5988,7 +5988,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{449F0046-4F1D-4CA3-8326-D55B2A84370B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.146</cx:f>
+              <cx:f>_xlchart.v1.108</cx:f>
               <cx:v>I felt that I could explore things</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6012,7 +6012,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E566A8AA-FE17-4837-9500-DD8746CA9F32}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.148</cx:f>
+              <cx:f>_xlchart.v1.110</cx:f>
               <cx:v>The game feels real</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6036,7 +6036,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B56FCFAF-955F-4F30-B331-9500770B017E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.150</cx:f>
+              <cx:f>_xlchart.v1.112</cx:f>
               <cx:v>I was fully occupied with the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6060,7 +6060,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F93E0A56-731D-498D-80DD-0903E0B8A135}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.114</cx:f>
+              <cx:f>_xlchart.v1.76</cx:f>
               <cx:v>I get wound up</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6084,7 +6084,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{13660BC4-D8ED-4338-B6FD-D87478EF1D69}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:f>_xlchart.v1.78</cx:f>
               <cx:v>Time seems to kind of stand still or stop</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6108,7 +6108,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{02C41259-583A-4B2C-95E1-96EA73311E87}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:f>_xlchart.v1.80</cx:f>
               <cx:v>I feel spaced out</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6132,7 +6132,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C99AC0CE-A9D1-4E63-8E58-B77CE838ACD2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.120</cx:f>
+              <cx:f>_xlchart.v1.82</cx:f>
               <cx:v>I was deeply concentrated in the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6156,7 +6156,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B5E4F9A-140B-4980-A045-686916C697AD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.122</cx:f>
+              <cx:f>_xlchart.v1.84</cx:f>
               <cx:v>I got tired</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6180,7 +6180,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23B502A3-565E-4E97-A7C7-30CE86C6EB71}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:f>_xlchart.v1.86</cx:f>
               <cx:v>Playing seems automatic</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6204,7 +6204,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{19D417AC-B749-4C9B-8400-21BF41766188}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:f>_xlchart.v1.88</cx:f>
               <cx:v>My thoughts go fast</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6228,7 +6228,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{697410DD-90B5-413E-8296-D8D0CF4C58B3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:f>_xlchart.v1.90</cx:f>
               <cx:v>I enjoyed it</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6252,7 +6252,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{947BDBA6-CFB0-44ED-8AC0-06ED7B3B27A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:f>_xlchart.v1.92</cx:f>
               <cx:v>I play without thinking how to play</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6276,7 +6276,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{38BCB0F4-587D-4299-94C0-DAA498217636}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:f>_xlchart.v1.94</cx:f>
               <cx:v>Playing makes me feel calm</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6300,7 +6300,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{ADE931C0-FF8B-453F-8FDA-AE989011A896}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:f>_xlchart.v1.96</cx:f>
               <cx:v>I play longer than I meant to</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6324,7 +6324,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{24E47364-F3A4-47BD-9E14-6DF07A374A3A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:f>_xlchart.v1.98</cx:f>
               <cx:v>I really get into the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6348,7 +6348,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DAAAB185-F770-487A-930B-ADD3CCF62110}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:f>_xlchart.v1.100</cx:f>
               <cx:v>I feel like I just can't stop playing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14264,8 +14264,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25630212-324B-4845-B728-9982B6D414E0}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A16:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9761F5E6-B04D-4771-999E-8C2CD50A9644}" name="Tabela przestawna4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E1:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -14297,24 +14297,14 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="14"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="6"/>
+      <items count="6">
+        <item x="0"/>
         <item x="1"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="0"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="2"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14365,12 +14355,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -14385,39 +14374,6 @@
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -15277,6 +15233,204 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25630212-324B-4845-B728-9982B6D414E0}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A16:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="54">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="14"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{525D8E6B-4ACF-4E1E-AFB7-1429A33723B8}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A7:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
@@ -15424,7 +15578,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDC3BF1C-0AFD-43F0-8F48-66E1C8D0E42D}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
@@ -15563,7 +15717,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09956D78-D7CD-4AB2-BB04-C4ABF9A75F6E}" name="Tabela przestawna5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E9:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
@@ -15658,160 +15812,6 @@
   </pivotFields>
   <rowFields count="1">
     <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
-    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9761F5E6-B04D-4771-999E-8C2CD50A9644}" name="Tabela przestawna4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E1:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="54">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
   </rowFields>
   <rowItems count="6">
     <i>
@@ -23272,14 +23272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56301FEA-F6F1-417A-B5B6-9A3FB80D9B06}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -25024,24 +25024,24 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>AVERAGE(A2:A15)</f>
+        <f>ROUND(AVERAGE(A2:A15),2)</f>
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:S16" si="0">AVERAGE(B2:B15)</f>
-        <v>3.1428571428571428</v>
+        <f t="shared" ref="B16:S16" si="0">ROUND(AVERAGE(B2:B15),2)</f>
+        <v>3.14</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2.5714285714285716</v>
+        <v>2.57</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.8571428571428572</v>
+        <v>1.86</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>2.1428571428571428</v>
+        <v>2.14</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -25049,27 +25049,27 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>2.4285714285714284</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>2.2142857142857144</v>
+        <v>2.21</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2.4285714285714284</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>2.9285714285714284</v>
+        <v>2.93</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>3.2857142857142856</v>
+        <v>3.29</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>3.2857142857142856</v>
+        <v>3.29</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -25077,11 +25077,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>3.3571428571428572</v>
+        <v>3.36</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>3.7142857142857144</v>
+        <v>3.71</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -25089,31 +25089,31 @@
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>2.6428571428571428</v>
+        <v>2.64</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>3.0714285714285716</v>
+        <v>3.07</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>2.2142857142857144</v>
+        <v>2.21</v>
       </c>
       <c r="U16">
-        <f>AVERAGE(U2:U15)</f>
-        <v>2.6428571428571428</v>
+        <f>ROUND(AVERAGE(U2:U15),2)</f>
+        <v>2.64</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:AM16" si="1">AVERAGE(V2:V15)</f>
-        <v>3.0714285714285716</v>
+        <f t="shared" ref="V16:AM16" si="1">ROUND(AVERAGE(V2:V15),2)</f>
+        <v>3.07</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>2.8571428571428572</v>
+        <v>2.86</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>3.7857142857142856</v>
+        <v>3.79</v>
       </c>
       <c r="Y16">
         <f t="shared" si="1"/>
@@ -25121,19 +25121,19 @@
       </c>
       <c r="Z16">
         <f t="shared" si="1"/>
-        <v>2.9285714285714284</v>
+        <v>2.93</v>
       </c>
       <c r="AA16">
         <f t="shared" si="1"/>
-        <v>2.6428571428571428</v>
+        <v>2.64</v>
       </c>
       <c r="AB16">
         <f t="shared" si="1"/>
-        <v>2.3571428571428572</v>
+        <v>2.36</v>
       </c>
       <c r="AC16">
         <f t="shared" si="1"/>
-        <v>2.2857142857142856</v>
+        <v>2.29</v>
       </c>
       <c r="AD16">
         <f t="shared" si="1"/>
@@ -25145,35 +25145,35 @@
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
-        <v>2.2857142857142856</v>
+        <v>2.29</v>
       </c>
       <c r="AG16">
         <f t="shared" si="1"/>
-        <v>2.6428571428571428</v>
+        <v>2.64</v>
       </c>
       <c r="AH16">
         <f t="shared" si="1"/>
-        <v>3.2857142857142856</v>
+        <v>3.29</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>2.9285714285714284</v>
+        <v>2.93</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="1"/>
-        <v>2.7857142857142856</v>
+        <v>2.79</v>
       </c>
       <c r="AK16">
         <f t="shared" si="1"/>
-        <v>2.7142857142857144</v>
+        <v>2.71</v>
       </c>
       <c r="AL16">
         <f t="shared" si="1"/>
-        <v>3.0714285714285716</v>
+        <v>3.07</v>
       </c>
       <c r="AM16">
         <f t="shared" si="1"/>
-        <v>2.1428571428571428</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -25332,156 +25332,156 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>_xlfn.STDEV.S(A2:A15)</f>
-        <v>1.2403473458920846</v>
+        <f>ROUND(_xlfn.STDEV.S(A2:A15),2)</f>
+        <v>1.24</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:S18" si="4">_xlfn.STDEV.S(B2:B15)</f>
-        <v>1.2924123453177283</v>
+        <f t="shared" ref="B18:S18" si="4">ROUND(_xlfn.STDEV.S(B2:B15),2)</f>
+        <v>1.29</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>1.4525460784051258</v>
+        <v>1.45</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>1.1673205911990769</v>
+        <v>1.17</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>1.2314558524297636</v>
+        <v>1.23</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>1.5191090506254998</v>
+        <v>1.52</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>1.2838814775327387</v>
+        <v>1.28</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>1.3114039117603014</v>
+        <v>1.31</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1.3424596091494905</v>
+        <v>1.34</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>1.3847680013570567</v>
+        <v>1.38</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>1.5406577730392867</v>
+        <v>1.54</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>1.266647387553302</v>
+        <v>1.27</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
-        <v>1.3008872711759818</v>
+        <v>1.3</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>1.3363062095621221</v>
+        <v>1.34</v>
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
-        <v>1.4373357526806554</v>
+        <v>1.44</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>1.2403473458920846</v>
+        <v>1.24</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>1.4990839693802167</v>
+        <v>1.5</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>1.3280573269766116</v>
+        <v>1.33</v>
       </c>
       <c r="S18">
         <f t="shared" si="4"/>
-        <v>1.4769288003552106</v>
+        <v>1.48</v>
       </c>
       <c r="U18">
-        <f>_xlfn.STDEV.S(U2:U15)</f>
-        <v>1.3363062095621216</v>
+        <f>ROUND(_xlfn.STDEV.S(U2:U15),2)</f>
+        <v>1.34</v>
       </c>
       <c r="V18">
-        <f t="shared" ref="V18:AM18" si="5">_xlfn.STDEV.S(V2:V15)</f>
-        <v>1.4392458342578485</v>
+        <f t="shared" ref="V18:AM18" si="5">ROUND(_xlfn.STDEV.S(V2:V15),2)</f>
+        <v>1.44</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>1.4600918230947433</v>
+        <v>1.46</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>1.3688047244316386</v>
+        <v>1.37</v>
       </c>
       <c r="Y18">
         <f t="shared" si="5"/>
-        <v>1.4142135623730951</v>
+        <v>1.41</v>
       </c>
       <c r="Z18">
         <f t="shared" si="5"/>
-        <v>1.4917354742965407</v>
+        <v>1.49</v>
       </c>
       <c r="AA18">
         <f t="shared" si="5"/>
-        <v>1.5984195491000022</v>
+        <v>1.6</v>
       </c>
       <c r="AB18">
         <f t="shared" si="5"/>
-        <v>1.4468609447374661</v>
+        <v>1.45</v>
       </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>1.3827826698682308</v>
+        <v>1.38</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>1.6172150801252798</v>
+        <v>1.62</v>
       </c>
       <c r="AE18">
         <f t="shared" si="5"/>
-        <v>1.2247448713915889</v>
+        <v>1.22</v>
       </c>
       <c r="AF18">
         <f t="shared" si="5"/>
-        <v>1.1387288073563859</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AG18">
         <f t="shared" si="5"/>
-        <v>1.3363062095621216</v>
+        <v>1.34</v>
       </c>
       <c r="AH18">
         <f t="shared" si="5"/>
-        <v>1.4373357526806554</v>
+        <v>1.44</v>
       </c>
       <c r="AI18">
         <f t="shared" si="5"/>
-        <v>1.4917354742965407</v>
+        <v>1.49</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="5"/>
-        <v>1.2513728724621076</v>
+        <v>1.25</v>
       </c>
       <c r="AK18">
         <f t="shared" si="5"/>
-        <v>1.489892687336984</v>
+        <v>1.49</v>
       </c>
       <c r="AL18">
         <f t="shared" si="5"/>
-        <v>1.3847680013570565</v>
+        <v>1.38</v>
       </c>
       <c r="AM18">
         <f t="shared" si="5"/>
-        <v>1.4600918230947433</v>
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>
@@ -25494,8 +25494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C7CF50-2FBD-4111-B95C-9FFDFC7A48D3}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27938,11 +27938,11 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>AVERAGE(A2:A21)</f>
+        <f>ROUND(AVERAGE(A2:A21),2)</f>
         <v>3.7</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:S22" si="0">AVERAGE(B2:B21)</f>
+        <f t="shared" ref="B22:S22" si="0">ROUND(AVERAGE(B2:B21),2)</f>
         <v>3.8</v>
       </c>
       <c r="C22">
@@ -28014,11 +28014,11 @@
         <v>3.15</v>
       </c>
       <c r="U22">
-        <f>AVERAGE(U2:U21)</f>
+        <f>ROUND(AVERAGE(U2:U21),2)</f>
         <v>3.1</v>
       </c>
       <c r="V22">
-        <f t="shared" ref="V22:AM22" si="1">AVERAGE(V2:V21)</f>
+        <f t="shared" ref="V22:AM22" si="1">ROUND(AVERAGE(V2:V21),2)</f>
         <v>3.5</v>
       </c>
       <c r="W22">
@@ -28246,156 +28246,156 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>_xlfn.STDEV.S(A2:A21)</f>
-        <v>1.2607433062326865</v>
+        <f>ROUND(_xlfn.STDEV.S(A2:A21),2)</f>
+        <v>1.26</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:S24" si="4">_xlfn.STDEV.S(B2:B21)</f>
-        <v>1.1516578439248715</v>
+        <f t="shared" ref="B24:S24" si="4">ROUND(_xlfn.STDEV.S(B2:B21),2)</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>1.4964871146156009</v>
+        <v>1.5</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>1.5183093090324964</v>
+        <v>1.52</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>1.3337718577107005</v>
+        <v>1.33</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>1.3869694338832115</v>
+        <v>1.39</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>1.5517392618742702</v>
+        <v>1.55</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>1.4363696929192156</v>
+        <v>1.44</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>1.2814465510343747</v>
+        <v>1.28</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>1.2732056517228267</v>
+        <v>1.27</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>1.2814465510343747</v>
+        <v>1.28</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>1.4363696929192156</v>
+        <v>1.44</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
-        <v>1.4327007988227578</v>
+        <v>1.43</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0.88704120832301658</v>
+        <v>0.89</v>
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>1.2732056517228267</v>
+        <v>1.27</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>0.95145318218750852</v>
+        <v>0.95</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>1.2513150976809202</v>
+        <v>1.25</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>1.2680278927697552</v>
+        <v>1.27</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>1.4964871146156009</v>
+        <v>1.5</v>
       </c>
       <c r="U24">
-        <f>_xlfn.STDEV.S(U2:U21)</f>
-        <v>1.4473205733717958</v>
+        <f>ROUND(_xlfn.STDEV.S(U2:U21),2)</f>
+        <v>1.45</v>
       </c>
       <c r="V24">
-        <f t="shared" ref="V24:AM24" si="5">_xlfn.STDEV.S(V2:V21)</f>
-        <v>1.3178930553209385</v>
+        <f t="shared" ref="V24:AM24" si="5">ROUND(_xlfn.STDEV.S(V2:V21),2)</f>
+        <v>1.32</v>
       </c>
       <c r="W24">
         <f t="shared" si="5"/>
-        <v>1.7614288458371994</v>
+        <v>1.76</v>
       </c>
       <c r="X24">
         <f t="shared" si="5"/>
-        <v>1.4653901941300931</v>
+        <v>1.47</v>
       </c>
       <c r="Y24">
         <f t="shared" si="5"/>
-        <v>1.4095538674570611</v>
+        <v>1.41</v>
       </c>
       <c r="Z24">
         <f t="shared" si="5"/>
-        <v>1.4689774459950382</v>
+        <v>1.47</v>
       </c>
       <c r="AA24">
         <f t="shared" si="5"/>
-        <v>1.5252264715358452</v>
+        <v>1.53</v>
       </c>
       <c r="AB24">
         <f t="shared" si="5"/>
-        <v>1.6189665319514632</v>
+        <v>1.62</v>
       </c>
       <c r="AC24">
         <f t="shared" si="5"/>
-        <v>1.5525869752736798</v>
+        <v>1.55</v>
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
-        <v>1.3572417850765923</v>
+        <v>1.36</v>
       </c>
       <c r="AE24">
         <f t="shared" si="5"/>
-        <v>1.5008769366431645</v>
+        <v>1.5</v>
       </c>
       <c r="AF24">
         <f t="shared" si="5"/>
-        <v>0.98808693416808457</v>
+        <v>0.99</v>
       </c>
       <c r="AG24">
         <f t="shared" si="5"/>
-        <v>1.4244112357114618</v>
+        <v>1.42</v>
       </c>
       <c r="AH24">
         <f t="shared" si="5"/>
-        <v>1.1821033884786187</v>
+        <v>1.18</v>
       </c>
       <c r="AI24">
         <f t="shared" si="5"/>
-        <v>0.81272770088724933</v>
+        <v>0.81</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="5"/>
-        <v>1.1742858972247994</v>
+        <v>1.17</v>
       </c>
       <c r="AK24">
         <f t="shared" si="5"/>
-        <v>1.6375527311718607</v>
+        <v>1.64</v>
       </c>
       <c r="AL24">
         <f t="shared" si="5"/>
-        <v>1.4290224851827544</v>
+        <v>1.43</v>
       </c>
       <c r="AM24">
         <f t="shared" si="5"/>
-        <v>1.5894388284780525</v>
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki/merged_in_order.xlsx
+++ b/wyniki/merged_in_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D196BF9-DDA4-4F27-9534-823AE240DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFAC35-5105-449D-950B-02981FCA7DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8D03BF68-5000-4F71-B9A7-7FF09177C41F}"/>
   </bookViews>
@@ -23,75 +23,189 @@
     <definedName name="_xlchart.v1.0" hidden="1">'formA descriptive'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'formA descriptive'!$F$1</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'formB descriptive'!$AM$1</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'formB descriptive'!$AM$2:$AM$21</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'formB descriptive'!$U$1</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'formB descriptive'!$U$2:$U$21</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'formB descriptive'!$V$1</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">'formB descriptive'!$V$2:$V$21</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">'formB descriptive'!$W$1</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">'formB descriptive'!$W$2:$W$21</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">'formB descriptive'!$X$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">'formB descriptive'!$X$2:$X$21</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'formA descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'formA descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'formA descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'formA descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'formA descriptive'!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'formA descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'formA descriptive'!$Q$2:$Q$15</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">'formB descriptive'!$Y$1</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">'formB descriptive'!$Y$2:$Y$21</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">'formB descriptive'!$Z$1</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">'formB descriptive'!$Z$2:$Z$21</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">'formB descriptive'!$A$1</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">'formB descriptive'!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">'formB descriptive'!$B$1</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">'formB descriptive'!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">'formB descriptive'!$C$1</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">'formB descriptive'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'formA descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'formA descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'formA descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'formA descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'formA descriptive'!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'formA descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'formA descriptive'!$G$1</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">'formB descriptive'!$D$1</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">'formB descriptive'!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">'formB descriptive'!$E$1</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">'formB descriptive'!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">'formB descriptive'!$F$1</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">'formB descriptive'!$F$2:$F$21</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">'formB descriptive'!$G$1</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">'formB descriptive'!$G$2:$G$21</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">'formB descriptive'!$H$1</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">'formB descriptive'!$H$2:$H$21</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'formA descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'formA descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'formA descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'formA descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'formA descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">'formB descriptive'!$I$1</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">'formB descriptive'!$I$2:$I$21</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">'formB descriptive'!$J$1</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">'formB descriptive'!$J$2:$J$21</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">'formB descriptive'!$K$1</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">'formB descriptive'!$K$2:$K$21</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">'formB descriptive'!$L$1</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">'formB descriptive'!$L$2:$L$21</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">'formB descriptive'!$M$1</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">'formB descriptive'!$M$2:$M$21</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'formA descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'formA descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'formA descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'formA descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'formA descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'formA descriptive'!$H$1</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">'formB descriptive'!$N$1</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">'formB descriptive'!$N$2:$N$21</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">'formB descriptive'!$O$1</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">'formB descriptive'!$O$2:$O$21</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">'formB descriptive'!$P$1</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">'formB descriptive'!$P$2:$P$21</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">'formB descriptive'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">'formB descriptive'!$Q$2:$Q$21</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">'formB descriptive'!$R$1</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">'formB descriptive'!$R$2:$R$21</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'formA descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'formA descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'formA descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'formA descriptive'!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'formA descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'formA descriptive'!$Q$2:$Q$15</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'formA descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">'formB descriptive'!$S$1</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">'formB descriptive'!$S$2:$S$21</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'formA descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'formA descriptive'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'formA descriptive'!$AA$2:$AA$15</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'formA descriptive'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">'formA descriptive'!$AB$2:$AB$15</definedName>
+    <definedName name="_xlchart.v1.156" hidden="1">'formA descriptive'!$AC$1</definedName>
+    <definedName name="_xlchart.v1.157" hidden="1">'formA descriptive'!$AC$2:$AC$15</definedName>
+    <definedName name="_xlchart.v1.158" hidden="1">'formA descriptive'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.159" hidden="1">'formA descriptive'!$AD$2:$AD$15</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'formA descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.160" hidden="1">'formA descriptive'!$AE$1</definedName>
+    <definedName name="_xlchart.v1.161" hidden="1">'formA descriptive'!$AE$2:$AE$15</definedName>
+    <definedName name="_xlchart.v1.162" hidden="1">'formA descriptive'!$AF$1</definedName>
+    <definedName name="_xlchart.v1.163" hidden="1">'formA descriptive'!$AF$2:$AF$15</definedName>
+    <definedName name="_xlchart.v1.164" hidden="1">'formA descriptive'!$AG$1</definedName>
+    <definedName name="_xlchart.v1.165" hidden="1">'formA descriptive'!$AG$2:$AG$15</definedName>
+    <definedName name="_xlchart.v1.166" hidden="1">'formA descriptive'!$AH$1</definedName>
+    <definedName name="_xlchart.v1.167" hidden="1">'formA descriptive'!$AH$2:$AH$15</definedName>
+    <definedName name="_xlchart.v1.168" hidden="1">'formA descriptive'!$AI$1</definedName>
+    <definedName name="_xlchart.v1.169" hidden="1">'formA descriptive'!$AI$2:$AI$15</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
+    <definedName name="_xlchart.v1.170" hidden="1">'formA descriptive'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.171" hidden="1">'formA descriptive'!$AJ$2:$AJ$15</definedName>
+    <definedName name="_xlchart.v1.172" hidden="1">'formA descriptive'!$AK$1</definedName>
+    <definedName name="_xlchart.v1.173" hidden="1">'formA descriptive'!$AK$2:$AK$15</definedName>
+    <definedName name="_xlchart.v1.174" hidden="1">'formA descriptive'!$AL$1</definedName>
+    <definedName name="_xlchart.v1.175" hidden="1">'formA descriptive'!$AL$2:$AL$15</definedName>
+    <definedName name="_xlchart.v1.176" hidden="1">'formA descriptive'!$AM$1</definedName>
+    <definedName name="_xlchart.v1.177" hidden="1">'formA descriptive'!$AM$2:$AM$15</definedName>
+    <definedName name="_xlchart.v1.178" hidden="1">'formA descriptive'!$U$1</definedName>
+    <definedName name="_xlchart.v1.179" hidden="1">'formA descriptive'!$U$2:$U$15</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">'formA descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.180" hidden="1">'formA descriptive'!$V$1</definedName>
+    <definedName name="_xlchart.v1.181" hidden="1">'formA descriptive'!$V$2:$V$15</definedName>
+    <definedName name="_xlchart.v1.182" hidden="1">'formA descriptive'!$W$1</definedName>
+    <definedName name="_xlchart.v1.183" hidden="1">'formA descriptive'!$W$2:$W$15</definedName>
+    <definedName name="_xlchart.v1.184" hidden="1">'formA descriptive'!$X$1</definedName>
+    <definedName name="_xlchart.v1.185" hidden="1">'formA descriptive'!$X$2:$X$15</definedName>
+    <definedName name="_xlchart.v1.186" hidden="1">'formA descriptive'!$Y$1</definedName>
+    <definedName name="_xlchart.v1.187" hidden="1">'formA descriptive'!$Y$2:$Y$15</definedName>
+    <definedName name="_xlchart.v1.188" hidden="1">'formA descriptive'!$Z$1</definedName>
+    <definedName name="_xlchart.v1.189" hidden="1">'formA descriptive'!$Z$2:$Z$15</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.190" hidden="1">'formB descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.191" hidden="1">'formB descriptive'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.192" hidden="1">'formB descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.193" hidden="1">'formB descriptive'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.194" hidden="1">'formB descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.195" hidden="1">'formB descriptive'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.196" hidden="1">'formB descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.197" hidden="1">'formB descriptive'!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.198" hidden="1">'formB descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.199" hidden="1">'formB descriptive'!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'formA descriptive'!$B$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'formA descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.200" hidden="1">'formB descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.201" hidden="1">'formB descriptive'!$F$2:$F$21</definedName>
+    <definedName name="_xlchart.v1.202" hidden="1">'formB descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.203" hidden="1">'formB descriptive'!$G$2:$G$21</definedName>
+    <definedName name="_xlchart.v1.204" hidden="1">'formB descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.205" hidden="1">'formB descriptive'!$H$2:$H$21</definedName>
+    <definedName name="_xlchart.v1.206" hidden="1">'formB descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.207" hidden="1">'formB descriptive'!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.208" hidden="1">'formB descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.209" hidden="1">'formB descriptive'!$J$2:$J$21</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
+    <definedName name="_xlchart.v1.210" hidden="1">'formB descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.211" hidden="1">'formB descriptive'!$K$2:$K$21</definedName>
+    <definedName name="_xlchart.v1.212" hidden="1">'formB descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.213" hidden="1">'formB descriptive'!$L$2:$L$21</definedName>
+    <definedName name="_xlchart.v1.214" hidden="1">'formB descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.215" hidden="1">'formB descriptive'!$M$2:$M$21</definedName>
+    <definedName name="_xlchart.v1.216" hidden="1">'formB descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.217" hidden="1">'formB descriptive'!$N$2:$N$21</definedName>
+    <definedName name="_xlchart.v1.218" hidden="1">'formB descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.219" hidden="1">'formB descriptive'!$O$2:$O$21</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'formA descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.220" hidden="1">'formB descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.221" hidden="1">'formB descriptive'!$P$2:$P$21</definedName>
+    <definedName name="_xlchart.v1.222" hidden="1">'formB descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.223" hidden="1">'formB descriptive'!$Q$2:$Q$21</definedName>
+    <definedName name="_xlchart.v1.224" hidden="1">'formB descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.225" hidden="1">'formB descriptive'!$R$2:$R$21</definedName>
+    <definedName name="_xlchart.v1.226" hidden="1">'formB descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.227" hidden="1">'formB descriptive'!$S$2:$S$21</definedName>
+    <definedName name="_xlchart.v1.228" hidden="1">'formB descriptive'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.229" hidden="1">'formB descriptive'!$AA$2:$AA$21</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
+    <definedName name="_xlchart.v1.230" hidden="1">'formB descriptive'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.231" hidden="1">'formB descriptive'!$AB$2:$AB$21</definedName>
+    <definedName name="_xlchart.v1.232" hidden="1">'formB descriptive'!$AC$1</definedName>
+    <definedName name="_xlchart.v1.233" hidden="1">'formB descriptive'!$AC$2:$AC$21</definedName>
+    <definedName name="_xlchart.v1.234" hidden="1">'formB descriptive'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.235" hidden="1">'formB descriptive'!$AD$2:$AD$21</definedName>
+    <definedName name="_xlchart.v1.236" hidden="1">'formB descriptive'!$AE$1</definedName>
+    <definedName name="_xlchart.v1.237" hidden="1">'formB descriptive'!$AE$2:$AE$21</definedName>
+    <definedName name="_xlchart.v1.238" hidden="1">'formB descriptive'!$AF$1</definedName>
+    <definedName name="_xlchart.v1.239" hidden="1">'formB descriptive'!$AF$2:$AF$21</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">'formA descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.240" hidden="1">'formB descriptive'!$AG$1</definedName>
+    <definedName name="_xlchart.v1.241" hidden="1">'formB descriptive'!$AG$2:$AG$21</definedName>
+    <definedName name="_xlchart.v1.242" hidden="1">'formB descriptive'!$AH$1</definedName>
+    <definedName name="_xlchart.v1.243" hidden="1">'formB descriptive'!$AH$2:$AH$21</definedName>
+    <definedName name="_xlchart.v1.244" hidden="1">'formB descriptive'!$AI$1</definedName>
+    <definedName name="_xlchart.v1.245" hidden="1">'formB descriptive'!$AI$2:$AI$21</definedName>
+    <definedName name="_xlchart.v1.246" hidden="1">'formB descriptive'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.247" hidden="1">'formB descriptive'!$AJ$2:$AJ$21</definedName>
+    <definedName name="_xlchart.v1.248" hidden="1">'formB descriptive'!$AK$1</definedName>
+    <definedName name="_xlchart.v1.249" hidden="1">'formB descriptive'!$AK$2:$AK$21</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.250" hidden="1">'formB descriptive'!$AL$1</definedName>
+    <definedName name="_xlchart.v1.251" hidden="1">'formB descriptive'!$AL$2:$AL$21</definedName>
+    <definedName name="_xlchart.v1.252" hidden="1">'formB descriptive'!$AM$1</definedName>
+    <definedName name="_xlchart.v1.253" hidden="1">'formB descriptive'!$AM$2:$AM$21</definedName>
+    <definedName name="_xlchart.v1.254" hidden="1">'formB descriptive'!$U$1</definedName>
+    <definedName name="_xlchart.v1.255" hidden="1">'formB descriptive'!$U$2:$U$21</definedName>
+    <definedName name="_xlchart.v1.256" hidden="1">'formB descriptive'!$V$1</definedName>
+    <definedName name="_xlchart.v1.257" hidden="1">'formB descriptive'!$V$2:$V$21</definedName>
+    <definedName name="_xlchart.v1.258" hidden="1">'formB descriptive'!$W$1</definedName>
+    <definedName name="_xlchart.v1.259" hidden="1">'formB descriptive'!$W$2:$W$21</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'formA descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.260" hidden="1">'formB descriptive'!$X$1</definedName>
+    <definedName name="_xlchart.v1.261" hidden="1">'formB descriptive'!$X$2:$X$21</definedName>
+    <definedName name="_xlchart.v1.262" hidden="1">'formB descriptive'!$Y$1</definedName>
+    <definedName name="_xlchart.v1.263" hidden="1">'formB descriptive'!$Y$2:$Y$21</definedName>
+    <definedName name="_xlchart.v1.264" hidden="1">'formB descriptive'!$Z$1</definedName>
+    <definedName name="_xlchart.v1.265" hidden="1">'formB descriptive'!$Z$2:$Z$21</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">'formA descriptive'!$O$1</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
@@ -104,74 +218,74 @@
     <definedName name="_xlchart.v1.35" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
     <definedName name="_xlchart.v1.36" hidden="1">'formA descriptive'!$S$1</definedName>
     <definedName name="_xlchart.v1.37" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'formA descriptive'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'formA descriptive'!$AA$2:$AA$15</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'formA descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'formA descriptive'!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'formA descriptive'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'formA descriptive'!$AB$2:$AB$15</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'formA descriptive'!$AC$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'formA descriptive'!$AC$2:$AC$15</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'formA descriptive'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'formA descriptive'!$AD$2:$AD$15</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'formA descriptive'!$AE$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'formA descriptive'!$AE$2:$AE$15</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'formA descriptive'!$AF$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'formA descriptive'!$AF$2:$AF$15</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'formA descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'formA descriptive'!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'formA descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'formA descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'formA descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'formA descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'formA descriptive'!$AG$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'formA descriptive'!$AG$2:$AG$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'formA descriptive'!$AH$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'formA descriptive'!$AH$2:$AH$15</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'formA descriptive'!$AI$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'formA descriptive'!$AI$2:$AI$15</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'formA descriptive'!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'formA descriptive'!$AJ$2:$AJ$15</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'formA descriptive'!$AK$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'formA descriptive'!$AK$2:$AK$15</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'formA descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'formA descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'formA descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'formA descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'formA descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'formA descriptive'!$D$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'formA descriptive'!$AL$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'formA descriptive'!$AL$2:$AL$15</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'formA descriptive'!$AM$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'formA descriptive'!$AM$2:$AM$15</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'formA descriptive'!$U$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'formA descriptive'!$U$2:$U$15</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'formA descriptive'!$V$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'formA descriptive'!$V$2:$V$15</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'formA descriptive'!$W$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'formA descriptive'!$W$2:$W$15</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'formA descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'formA descriptive'!$M$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'formA descriptive'!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'formA descriptive'!$N$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'formA descriptive'!$N$2:$N$15</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'formA descriptive'!$O$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'formA descriptive'!$O$2:$O$15</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'formA descriptive'!$P$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'formA descriptive'!$P$2:$P$15</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'formA descriptive'!$X$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'formA descriptive'!$X$2:$X$15</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'formA descriptive'!$Y$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'formA descriptive'!$Y$2:$Y$15</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'formA descriptive'!$Z$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'formA descriptive'!$Z$2:$Z$15</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'formB descriptive'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'formB descriptive'!$AA$2:$AA$21</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'formB descriptive'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'formB descriptive'!$AB$2:$AB$21</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'formA descriptive'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'formA descriptive'!$Q$2:$Q$15</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'formA descriptive'!$R$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'formA descriptive'!$R$2:$R$15</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'formA descriptive'!$S$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'formA descriptive'!$S$2:$S$15</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'formA descriptive'!$A$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'formA descriptive'!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'formA descriptive'!$B$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'formA descriptive'!$B$2:$B$15</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'formA descriptive'!$E$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'formB descriptive'!$AC$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'formB descriptive'!$AC$2:$AC$21</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'formB descriptive'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'formB descriptive'!$AD$2:$AD$21</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'formB descriptive'!$AE$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'formB descriptive'!$AE$2:$AE$21</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'formB descriptive'!$AF$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'formB descriptive'!$AF$2:$AF$21</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'formB descriptive'!$AG$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'formB descriptive'!$AG$2:$AG$21</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'formA descriptive'!$C$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'formA descriptive'!$C$2:$C$15</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'formA descriptive'!$D$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'formA descriptive'!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'formA descriptive'!$E$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'formA descriptive'!$F$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'formA descriptive'!$F$2:$F$15</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'formA descriptive'!$G$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'formA descriptive'!$G$2:$G$15</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'formA descriptive'!$E$2:$E$15</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'formB descriptive'!$AH$1</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'formB descriptive'!$AH$2:$AH$21</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'formB descriptive'!$AI$1</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'formB descriptive'!$AI$2:$AI$21</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'formB descriptive'!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'formB descriptive'!$AJ$2:$AJ$21</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'formB descriptive'!$AK$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'formB descriptive'!$AK$2:$AK$21</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'formB descriptive'!$AL$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'formB descriptive'!$AL$2:$AL$21</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'formA descriptive'!$H$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'formA descriptive'!$H$2:$H$15</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'formA descriptive'!$I$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'formA descriptive'!$I$2:$I$15</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'formA descriptive'!$J$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'formA descriptive'!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'formA descriptive'!$K$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'formA descriptive'!$K$2:$K$15</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'formA descriptive'!$L$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'formA descriptive'!$L$2:$L$15</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">combined!$A$1:$BC$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1745,6 +1859,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Płeć</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1810,6 +1979,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba osób</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2265,6 +2489,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Przedziały wiekowe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2330,6 +2609,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba osób</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2878,6 +3212,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Kraj pochodzenia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2943,6 +3332,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba osób</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3248,16 +3692,16 @@
                   <c:v>&lt;7yo</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13-15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16-19</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20+</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3272,13 +3716,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,16 +3766,16 @@
                   <c:v>&lt;7yo</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13-15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16-19</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20+</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3346,16 +3790,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,6 +3830,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Przedziały wieku rozpoczęcia grania w gry wideo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3451,6 +3950,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba osób</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3756,7 +4310,7 @@
                   <c:v>&lt;5h</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt;20h</c:v>
+                  <c:v>5-10h</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10-15h</c:v>
@@ -3765,7 +4319,7 @@
                   <c:v>15-20h</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-10h</c:v>
+                  <c:v>&gt;20h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3779,14 +4333,14 @@
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,7 +4384,7 @@
                   <c:v>&lt;5h</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt;20h</c:v>
+                  <c:v>5-10h</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10-15h</c:v>
@@ -3839,7 +4393,7 @@
                   <c:v>15-20h</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-10h</c:v>
+                  <c:v>&gt;20h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3854,13 +4408,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,6 +4445,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Przedziały średniej</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> tygodniowej liczby godzin poświęconej na gry wideo</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3956,6 +4570,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba osób</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4094,1154 +4763,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="13">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="14">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="15">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="16">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="17">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="18">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{14DB9EF3-7C72-49A1-86F8-744E79F81050}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>I lose track of time</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{28954439-E554-499B-A931-7DD5E4FE2398}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>I was interested in the game's story</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct10">
-              <a:fgClr>
-                <a:srgbClr val="FF0000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5FDB13A7-697C-45B5-BBD7-1BF9362EF47D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>I feel different </cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D8D1F8AA-37EE-4BCD-BD16-3EECE70FB4F6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>I felt that I could explore things</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{76DD44DE-EB10-48DE-9D62-3E8CBCBCA526}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>The game feels real</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BB15A01C-5E33-4E8D-BD27-6DC1C6ECBE8B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>I was fully occupied with the game</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{FE1EF1A2-DE25-4837-B56F-0723CAC5CD08}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>I get wound up</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{80A22390-F0DE-4AA5-921B-A88BD8AD65DF}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>Time seems to kind of stand still or stop</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:effectLst>
-              <a:glow>
-                <a:schemeClr val="accent1"/>
-              </a:glow>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </cx:spPr>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7C541C84-D642-49DE-9497-26343A07203C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>I feel spaced out</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="8"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{FB399FAA-0903-4292-B99E-C97B26E3AE17}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>I was deeply concentrated in the game</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="9"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3564EB1B-CD8C-4860-8938-6C3449A4F1D2}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
-              <cx:v>I got tired</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="10"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{15B77A2A-3E29-48ED-9669-4B55CF92978A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
-              <cx:v>Playing seems automatic</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="11"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6D05807E-D4DC-4997-ACB8-1A2979E78A51}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
-              <cx:v>My thoughts go fast</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="12"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CC6CD2DE-F2C0-491E-A106-795600B33B76}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>I enjoyed it</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="13"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{308F09CE-DC95-4014-91CC-6C3AAA923D76}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>I play without thinking how to play</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="14"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CA9904C7-CF78-484C-9758-BEC54BCA8F14}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>Playing makes me feel calm</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="15"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{63C92058-BF2B-4D41-8FF3-F9B3CC75F6C8}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>I play longer than I meant to</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="16"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E0422A26-D9DA-4370-AB44-98F821AAB3C8}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>I really get into the game</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="17"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D0CCE0DE-E4ED-4C33-B35F-7825BB57E66D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>I feel like I just can't stop playing</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:srgbClr val="FFC000"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="18"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.200000003"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="13">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="14">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="15">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="16">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="17">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="18">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{6B2C322B-B993-4F8E-AD6D-D6C2B7F63CF8}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
-              <cx:v>I lose track of time_1</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E02B80E8-2FB2-4DDC-AD8F-7C1781B5351D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
-              <cx:v>I was interested in the game's story_2</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5325B789-9EA1-459B-8B3A-2BA177FA7452}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
-              <cx:v>I feel different _3</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{93E216F0-D381-4781-9469-3F638844AB76}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
-              <cx:v>I felt that I could explore things_19</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{20D76B0E-414F-4FB1-89D3-2C12891AC821}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
-              <cx:v>The game feels real_4</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0613C36A-79A9-425B-A85A-BCCC0AAEAAAD}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
-              <cx:v>I was fully occupied with the game_5</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{9BF60487-8D59-4343-B646-2B08CC91102F}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>I get wound up_6</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3C11C9EF-0425-4EF0-8A74-AEFF33F41B94}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Time seems to kind of stand still or stop_7</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B63E5641-6ECE-49B4-9F68-EA30F58B69D5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>I feel spaced out_8</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="8"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{54428096-C2D4-4AEF-945F-A64229B05518}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>I was deeply concentrated in the game_9</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="9"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BB6AC2EE-2865-4768-AC7D-B362833BF49C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>I got tired_10</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="10"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F995007B-3A0D-4C3A-9571-70C97B54984D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>Playing seems automatic_11</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="11"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D1C795A9-A8BC-4834-A07C-A2DC95455B20}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>My thoughts go fast_12</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="12"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{AA2769E5-103B-4214-ACCF-F279E62AA73F}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
-              <cx:v>I enjoyed it_13</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="13"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{698B5BAD-519B-4E6E-9009-39D5E773E964}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
-              <cx:v>I play without thinking how to play_14</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="14"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{AE8BED53-DB07-4840-A396-E6DA970FBB0C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
-              <cx:v>Playing makes me feel calm_15</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="15"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F95B28B1-4041-45E4-8DF6-E9AAE288F2EE}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
-              <cx:v>I play longer than I meant to_16</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="16"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D3FD1AF5-FA39-4C5C-A16C-5B0200C2A3D1}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
-              <cx:v>I really get into the game_17</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="17"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{10B828E5-ACEC-4185-99CE-BAF84DF0A917}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
-              <cx:v>I feel like I just can't stop playing_18</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </cx:spPr>
-          <cx:dataId val="18"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.200000003"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.115</cx:f>
       </cx:numDim>
     </cx:data>
@@ -5339,10 +4860,601 @@
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{B71226A2-0FD7-4A7F-B584-69747636A850}">
+        <cx:series layoutId="boxWhisker" uniqueId="{14DB9EF3-7C72-49A1-86F8-744E79F81050}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.114</cx:f>
+              <cx:v>I lose track of time</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{28954439-E554-499B-A931-7DD5E4FE2398}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:v>I was interested in the game's story</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:srgbClr val="FF0000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5FDB13A7-697C-45B5-BBD7-1BF9362EF47D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:v>I feel different </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D8D1F8AA-37EE-4BCD-BD16-3EECE70FB4F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.120</cx:f>
+              <cx:v>I felt that I could explore things</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{76DD44DE-EB10-48DE-9D62-3E8CBCBCA526}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.122</cx:f>
+              <cx:v>The game feels real</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BB15A01C-5E33-4E8D-BD27-6DC1C6ECBE8B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:v>I was fully occupied with the game</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FE1EF1A2-DE25-4837-B56F-0723CAC5CD08}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>I get wound up</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{80A22390-F0DE-4AA5-921B-A88BD8AD65DF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>Time seems to kind of stand still or stop</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </cx:spPr>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7C541C84-D642-49DE-9497-26343A07203C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:v>I feel spaced out</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FB399FAA-0903-4292-B99E-C97B26E3AE17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:v>I was deeply concentrated in the game</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3564EB1B-CD8C-4860-8938-6C3449A4F1D2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:v>I got tired</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="10"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{15B77A2A-3E29-48ED-9669-4B55CF92978A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>Playing seems automatic</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="11"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6D05807E-D4DC-4997-ACB8-1A2979E78A51}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>My thoughts go fast</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="12"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CC6CD2DE-F2C0-491E-A106-795600B33B76}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.140</cx:f>
+              <cx:v>I enjoyed it</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="13"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{308F09CE-DC95-4014-91CC-6C3AAA923D76}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.142</cx:f>
+              <cx:v>I play without thinking how to play</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="14"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CA9904C7-CF78-484C-9758-BEC54BCA8F14}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.144</cx:f>
+              <cx:v>Playing makes me feel calm</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="15"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{63C92058-BF2B-4D41-8FF3-F9B3CC75F6C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.146</cx:f>
+              <cx:v>I play longer than I meant to</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="16"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0422A26-D9DA-4370-AB44-98F821AAB3C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.148</cx:f>
+              <cx:v>I really get into the game</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="17"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D0CCE0DE-E4ED-4C33-B35F-7825BB57E66D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.150</cx:f>
+              <cx:v>I feel like I just can't stop playing</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:srgbClr val="FFC000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="18"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="5" min="1"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.179</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.181</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.183</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.185</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.187</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.189</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.153</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.155</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.157</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.159</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.161</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="11">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.163</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.165</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="13">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.167</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="14">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.169</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="15">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.171</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="16">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.173</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="17">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.175</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="18">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.177</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6B2C322B-B993-4F8E-AD6D-D6C2B7F63CF8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.178</cx:f>
               <cx:v>I lose track of time_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5360,13 +5472,14 @@
           </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4438934A-17F4-4C46-A258-6CCA9A6AAEE2}">
+        <cx:series layoutId="boxWhisker" uniqueId="{E02B80E8-2FB2-4DDC-AD8F-7C1781B5351D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:f>_xlchart.v1.180</cx:f>
               <cx:v>I was interested in the game's story_2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5384,13 +5497,14 @@
           </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{1FF4E36A-E2C9-4D43-89E2-0794D3A5507C}">
+        <cx:series layoutId="boxWhisker" uniqueId="{5325B789-9EA1-459B-8B3A-2BA177FA7452}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:f>_xlchart.v1.182</cx:f>
               <cx:v>I feel different _3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5408,13 +5522,14 @@
           </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7E2C3773-031F-4E4A-A600-4BEEB30A2842}">
+        <cx:series layoutId="boxWhisker" uniqueId="{93E216F0-D381-4781-9469-3F638844AB76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.120</cx:f>
+              <cx:f>_xlchart.v1.184</cx:f>
               <cx:v>I felt that I could explore things_19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5432,13 +5547,14 @@
           </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{15C882DE-C1F6-4C8A-B8F5-E488E7F9B696}">
+        <cx:series layoutId="boxWhisker" uniqueId="{20D76B0E-414F-4FB1-89D3-2C12891AC821}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.122</cx:f>
+              <cx:f>_xlchart.v1.186</cx:f>
               <cx:v>The game feels real_4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5456,13 +5572,14 @@
           </cx:spPr>
           <cx:dataId val="4"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{8C643387-B1F0-48D2-BFD9-029450868CBF}">
+        <cx:series layoutId="boxWhisker" uniqueId="{0613C36A-79A9-425B-A85A-BCCC0AAEAAAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:f>_xlchart.v1.188</cx:f>
               <cx:v>I was fully occupied with the game_5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5480,13 +5597,14 @@
           </cx:spPr>
           <cx:dataId val="5"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{C726DA54-373D-4575-A283-14DFA18FDF60}">
+        <cx:series layoutId="boxWhisker" uniqueId="{9BF60487-8D59-4343-B646-2B08CC91102F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:f>_xlchart.v1.152</cx:f>
               <cx:v>I get wound up_6</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5504,13 +5622,14 @@
           </cx:spPr>
           <cx:dataId val="6"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CB753087-38D1-415F-A67C-F6D1C965A876}">
+        <cx:series layoutId="boxWhisker" uniqueId="{3C11C9EF-0425-4EF0-8A74-AEFF33F41B94}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:f>_xlchart.v1.154</cx:f>
               <cx:v>Time seems to kind of stand still or stop_7</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5528,13 +5647,14 @@
           </cx:spPr>
           <cx:dataId val="7"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{33DD0E8A-976A-43B6-B797-B7D7FB41AEB0}">
+        <cx:series layoutId="boxWhisker" uniqueId="{B63E5641-6ECE-49B4-9F68-EA30F58B69D5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:f>_xlchart.v1.156</cx:f>
               <cx:v>I feel spaced out_8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5552,13 +5672,14 @@
           </cx:spPr>
           <cx:dataId val="8"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{837617D6-F352-488B-9D42-26E1A471848F}">
+        <cx:series layoutId="boxWhisker" uniqueId="{54428096-C2D4-4AEF-945F-A64229B05518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:f>_xlchart.v1.158</cx:f>
               <cx:v>I was deeply concentrated in the game_9</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5576,13 +5697,14 @@
           </cx:spPr>
           <cx:dataId val="9"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F004EC9D-1A45-4B71-8B2B-1B716AC335C1}">
+        <cx:series layoutId="boxWhisker" uniqueId="{BB6AC2EE-2865-4768-AC7D-B362833BF49C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:f>_xlchart.v1.160</cx:f>
               <cx:v>I got tired_10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5600,13 +5722,14 @@
           </cx:spPr>
           <cx:dataId val="10"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B61728EC-71A4-4AC8-8B85-0351777A9908}">
+        <cx:series layoutId="boxWhisker" uniqueId="{F995007B-3A0D-4C3A-9571-70C97B54984D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:f>_xlchart.v1.162</cx:f>
               <cx:v>Playing seems automatic_11</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5624,13 +5747,14 @@
           </cx:spPr>
           <cx:dataId val="11"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{DFC2FCFC-3149-467B-9B69-2B05E046EBB0}">
+        <cx:series layoutId="boxWhisker" uniqueId="{D1C795A9-A8BC-4834-A07C-A2DC95455B20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:f>_xlchart.v1.164</cx:f>
               <cx:v>My thoughts go fast_12</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5648,13 +5772,14 @@
           </cx:spPr>
           <cx:dataId val="12"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F7F352DD-C01E-4289-84BB-B062B1347E79}">
+        <cx:series layoutId="boxWhisker" uniqueId="{AA2769E5-103B-4214-ACCF-F279E62AA73F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.140</cx:f>
+              <cx:f>_xlchart.v1.166</cx:f>
               <cx:v>I enjoyed it_13</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5672,13 +5797,14 @@
           </cx:spPr>
           <cx:dataId val="13"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{562A32E3-31F3-49B1-8FE0-9E1079F9E882}">
+        <cx:series layoutId="boxWhisker" uniqueId="{698B5BAD-519B-4E6E-9009-39D5E773E964}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.142</cx:f>
+              <cx:f>_xlchart.v1.168</cx:f>
               <cx:v>I play without thinking how to play_14</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5696,13 +5822,14 @@
           </cx:spPr>
           <cx:dataId val="14"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{944F3130-1904-4E51-97A2-D610FAFFEE4D}">
+        <cx:series layoutId="boxWhisker" uniqueId="{AE8BED53-DB07-4840-A396-E6DA970FBB0C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.144</cx:f>
+              <cx:f>_xlchart.v1.170</cx:f>
               <cx:v>Playing makes me feel calm_15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5720,13 +5847,14 @@
           </cx:spPr>
           <cx:dataId val="15"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6CB22AA3-AB90-40DB-884B-F6A2ADBB5A09}">
+        <cx:series layoutId="boxWhisker" uniqueId="{F95B28B1-4041-45E4-8DF6-E9AAE288F2EE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.146</cx:f>
+              <cx:f>_xlchart.v1.172</cx:f>
               <cx:v>I play longer than I meant to_16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5744,13 +5872,14 @@
           </cx:spPr>
           <cx:dataId val="16"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{D4665FFD-BF85-4A44-B4E8-4EE594665D69}">
+        <cx:series layoutId="boxWhisker" uniqueId="{D3FD1AF5-FA39-4C5C-A16C-5B0200C2A3D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.148</cx:f>
+              <cx:f>_xlchart.v1.174</cx:f>
               <cx:v>I really get into the game_17</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5768,13 +5897,14 @@
           </cx:spPr>
           <cx:dataId val="17"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{881A8826-539A-4798-91B8-A059E5DF96A3}">
+        <cx:series layoutId="boxWhisker" uniqueId="{10B828E5-ACEC-4185-99CE-BAF84DF0A917}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.150</cx:f>
+              <cx:f>_xlchart.v1.176</cx:f>
               <cx:v>I feel like I just can't stop playing_18</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5792,16 +5922,610 @@
           </cx:spPr>
           <cx:dataId val="18"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.200000003"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="5" min="1"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.191</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.193</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.195</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.197</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.199</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.201</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.203</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.205</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.207</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.209</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.211</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="11">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.213</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.215</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="13">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.217</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="14">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.219</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="15">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.221</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="16">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.223</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="17">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.225</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="18">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.227</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B71226A2-0FD7-4A7F-B584-69747636A850}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.190</cx:f>
+              <cx:v>I lose track of time_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4438934A-17F4-4C46-A258-6CCA9A6AAEE2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.192</cx:f>
+              <cx:v>I was interested in the game's story_2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1FF4E36A-E2C9-4D43-89E2-0794D3A5507C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.194</cx:f>
+              <cx:v>I feel different _3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7E2C3773-031F-4E4A-A600-4BEEB30A2842}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.196</cx:f>
+              <cx:v>I felt that I could explore things_19</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{15C882DE-C1F6-4C8A-B8F5-E488E7F9B696}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.198</cx:f>
+              <cx:v>The game feels real_4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8C643387-B1F0-48D2-BFD9-029450868CBF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.200</cx:f>
+              <cx:v>I was fully occupied with the game_5</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C726DA54-373D-4575-A283-14DFA18FDF60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.202</cx:f>
+              <cx:v>I get wound up_6</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CB753087-38D1-415F-A67C-F6D1C965A876}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.204</cx:f>
+              <cx:v>Time seems to kind of stand still or stop_7</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{33DD0E8A-976A-43B6-B797-B7D7FB41AEB0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.206</cx:f>
+              <cx:v>I feel spaced out_8</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{837617D6-F352-488B-9D42-26E1A471848F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.208</cx:f>
+              <cx:v>I was deeply concentrated in the game_9</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F004EC9D-1A45-4B71-8B2B-1B716AC335C1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.210</cx:f>
+              <cx:v>I got tired_10</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="10"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B61728EC-71A4-4AC8-8B85-0351777A9908}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.212</cx:f>
+              <cx:v>Playing seems automatic_11</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="11"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DFC2FCFC-3149-467B-9B69-2B05E046EBB0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.214</cx:f>
+              <cx:v>My thoughts go fast_12</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="12"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F7F352DD-C01E-4289-84BB-B062B1347E79}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.216</cx:f>
+              <cx:v>I enjoyed it_13</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="13"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{562A32E3-31F3-49B1-8FE0-9E1079F9E882}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.218</cx:f>
+              <cx:v>I play without thinking how to play_14</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="14"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{944F3130-1904-4E51-97A2-D610FAFFEE4D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.220</cx:f>
+              <cx:v>Playing makes me feel calm_15</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="15"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6CB22AA3-AB90-40DB-884B-F6A2ADBB5A09}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.222</cx:f>
+              <cx:v>I play longer than I meant to_16</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="16"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D4665FFD-BF85-4A44-B4E8-4EE594665D69}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.224</cx:f>
+              <cx:v>I really get into the game_17</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="17"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{881A8826-539A-4798-91B8-A059E5DF96A3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.226</cx:f>
+              <cx:v>I feel like I just can't stop playing_18</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </cx:spPr>
+          <cx:dataId val="18"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="5" min="1"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -5816,97 +6540,97 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.103</cx:f>
+        <cx:f>_xlchart.v1.255</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.105</cx:f>
+        <cx:f>_xlchart.v1.257</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.107</cx:f>
+        <cx:f>_xlchart.v1.259</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.109</cx:f>
+        <cx:f>_xlchart.v1.261</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.111</cx:f>
+        <cx:f>_xlchart.v1.263</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.113</cx:f>
+        <cx:f>_xlchart.v1.265</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.229</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.231</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.233</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.235</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.237</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.239</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.89</cx:f>
+        <cx:f>_xlchart.v1.241</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.91</cx:f>
+        <cx:f>_xlchart.v1.243</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.93</cx:f>
+        <cx:f>_xlchart.v1.245</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.95</cx:f>
+        <cx:f>_xlchart.v1.247</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="16">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
+        <cx:f>_xlchart.v1.249</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="17">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.99</cx:f>
+        <cx:f>_xlchart.v1.251</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="18">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.101</cx:f>
+        <cx:f>_xlchart.v1.253</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5916,7 +6640,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4FF7C23-5FDB-48C6-86D8-2976A7CA21D3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.102</cx:f>
+              <cx:f>_xlchart.v1.254</cx:f>
               <cx:v>I lose track of time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5934,13 +6658,14 @@
           </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{79745BDB-A86E-497F-B533-959F50026377}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.104</cx:f>
+              <cx:f>_xlchart.v1.256</cx:f>
               <cx:v>I was interested in the game's story</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5958,13 +6683,14 @@
           </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{912E1900-FE5B-4A19-80A4-1D1D9281AB97}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.106</cx:f>
+              <cx:f>_xlchart.v1.258</cx:f>
               <cx:v>I feel different </cx:v>
             </cx:txData>
           </cx:tx>
@@ -5982,13 +6708,14 @@
           </cx:spPr>
           <cx:dataId val="2"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{449F0046-4F1D-4CA3-8326-D55B2A84370B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:f>_xlchart.v1.260</cx:f>
               <cx:v>I felt that I could explore things</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6006,13 +6733,14 @@
           </cx:spPr>
           <cx:dataId val="3"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{E566A8AA-FE17-4837-9500-DD8746CA9F32}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.110</cx:f>
+              <cx:f>_xlchart.v1.262</cx:f>
               <cx:v>The game feels real</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6030,13 +6758,14 @@
           </cx:spPr>
           <cx:dataId val="4"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{B56FCFAF-955F-4F30-B331-9500770B017E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.112</cx:f>
+              <cx:f>_xlchart.v1.264</cx:f>
               <cx:v>I was fully occupied with the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6054,13 +6783,14 @@
           </cx:spPr>
           <cx:dataId val="5"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{F93E0A56-731D-498D-80DD-0903E0B8A135}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.228</cx:f>
               <cx:v>I get wound up</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6078,13 +6808,14 @@
           </cx:spPr>
           <cx:dataId val="6"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{13660BC4-D8ED-4338-B6FD-D87478EF1D69}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.230</cx:f>
               <cx:v>Time seems to kind of stand still or stop</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6102,13 +6833,14 @@
           </cx:spPr>
           <cx:dataId val="7"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{02C41259-583A-4B2C-95E1-96EA73311E87}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:f>_xlchart.v1.232</cx:f>
               <cx:v>I feel spaced out</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6126,13 +6858,14 @@
           </cx:spPr>
           <cx:dataId val="8"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{C99AC0CE-A9D1-4E63-8E58-B77CE838ACD2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:f>_xlchart.v1.234</cx:f>
               <cx:v>I was deeply concentrated in the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6150,13 +6883,14 @@
           </cx:spPr>
           <cx:dataId val="9"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{1B5E4F9A-140B-4980-A045-686916C697AD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:f>_xlchart.v1.236</cx:f>
               <cx:v>I got tired</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6174,13 +6908,14 @@
           </cx:spPr>
           <cx:dataId val="10"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{23B502A3-565E-4E97-A7C7-30CE86C6EB71}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.86</cx:f>
+              <cx:f>_xlchart.v1.238</cx:f>
               <cx:v>Playing seems automatic</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6198,13 +6933,14 @@
           </cx:spPr>
           <cx:dataId val="11"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{19D417AC-B749-4C9B-8400-21BF41766188}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:f>_xlchart.v1.240</cx:f>
               <cx:v>My thoughts go fast</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6222,13 +6958,14 @@
           </cx:spPr>
           <cx:dataId val="12"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{697410DD-90B5-413E-8296-D8D0CF4C58B3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:f>_xlchart.v1.242</cx:f>
               <cx:v>I enjoyed it</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6246,13 +6983,14 @@
           </cx:spPr>
           <cx:dataId val="13"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{947BDBA6-CFB0-44ED-8AC0-06ED7B3B27A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.92</cx:f>
+              <cx:f>_xlchart.v1.244</cx:f>
               <cx:v>I play without thinking how to play</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6270,13 +7008,14 @@
           </cx:spPr>
           <cx:dataId val="14"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{38BCB0F4-587D-4299-94C0-DAA498217636}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.94</cx:f>
+              <cx:f>_xlchart.v1.246</cx:f>
               <cx:v>Playing makes me feel calm</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6294,13 +7033,14 @@
           </cx:spPr>
           <cx:dataId val="15"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{ADE931C0-FF8B-453F-8FDA-AE989011A896}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.96</cx:f>
+              <cx:f>_xlchart.v1.248</cx:f>
               <cx:v>I play longer than I meant to</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6318,13 +7058,14 @@
           </cx:spPr>
           <cx:dataId val="16"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{24E47364-F3A4-47BD-9E14-6DF07A374A3A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.98</cx:f>
+              <cx:f>_xlchart.v1.250</cx:f>
               <cx:v>I really get into the game</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6342,13 +7083,14 @@
           </cx:spPr>
           <cx:dataId val="17"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{DAAAB185-F770-487A-930B-ADD3CCF62110}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.100</cx:f>
+              <cx:f>_xlchart.v1.252</cx:f>
               <cx:v>I feel like I just can't stop playing</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6366,16 +7108,17 @@
           </cx:spPr>
           <cx:dataId val="18"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.200000003"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="5" min="1"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -11510,15 +12253,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71435</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11554,8 +12297,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="209549" y="4643435"/>
-              <a:ext cx="11582401" cy="5081590"/>
+              <a:off x="285749" y="5129210"/>
+              <a:ext cx="11668126" cy="5081590"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11632,7 +12375,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12858749" y="4672011"/>
+              <a:off x="12944474" y="4672011"/>
               <a:ext cx="11591925" cy="4957763"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11671,15 +12414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>101311</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>564572</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11715,8 +12458,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="161925" y="4843461"/>
-              <a:ext cx="11439525" cy="4110039"/>
+              <a:off x="101311" y="4843461"/>
+              <a:ext cx="11373716" cy="4265903"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11748,16 +12491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>48922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11793,8 +12536,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12163425" y="4967286"/>
-              <a:ext cx="11620500" cy="4224339"/>
+              <a:off x="12227502" y="5001922"/>
+              <a:ext cx="12346998" cy="4462464"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14074,10 +14817,10 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="1"/>
-        <item x="4"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="0"/>
-        <item x="2"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14264,8 +15007,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9761F5E6-B04D-4771-999E-8C2CD50A9644}" name="Tabela przestawna4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E1:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDC3BF1C-0AFD-43F0-8F48-66E1C8D0E42D}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -14276,7 +15019,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -14298,16 +15041,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14357,9 +15091,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -14368,12 +15102,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -14455,10 +15183,10 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15233,6 +15961,314 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09956D78-D7CD-4AB2-BB04-C4ABF9A75F6E}" name="Tabela przestawna5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E9:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="54">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9761F5E6-B04D-4771-999E-8C2CD50A9644}" name="Tabela przestawna4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E1:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="54">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25630212-324B-4845-B728-9982B6D414E0}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A16:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
@@ -15430,7 +16466,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{525D8E6B-4ACF-4E1E-AFB7-1429A33723B8}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A7:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
@@ -15535,299 +16571,6 @@
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
-    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDC3BF1C-0AFD-43F0-8F48-66E1C8D0E42D}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="54">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Liczba z Sygnatura czasowa" fld="0" subtotal="count" baseField="3" baseItem="0"/>
-    <dataField name="Liczba z Sygnatura czasowa2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09956D78-D7CD-4AB2-BB04-C4ABF9A75F6E}" name="Tabela przestawna5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E9:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="54">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -22130,8 +22873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A39093-29DB-48D7-BD67-21BC79A30B71}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView topLeftCell="B39" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22602,55 +23345,55 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>187</v>
+        <v>145</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -22705,13 +23448,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -22741,16 +23487,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -23272,8 +24015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56301FEA-F6F1-417A-B5B6-9A3FB80D9B06}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView topLeftCell="K67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25:AM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25494,8 +26237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C7CF50-2FBD-4111-B95C-9FFDFC7A48D3}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27:AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
